--- a/docs/StructureDefinition-cibmtr-medication-administration.xlsx
+++ b/docs/StructureDefinition-cibmtr-medication-administration.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-08-02T15:12:35-05:00</t>
+    <t>2022-08-09T16:48:03-05:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/docs/StructureDefinition-cibmtr-medication-administration.xlsx
+++ b/docs/StructureDefinition-cibmtr-medication-administration.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-08-09T16:48:03-05:00</t>
+    <t>2022-08-09T17:12:26-05:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/docs/StructureDefinition-cibmtr-medication-administration.xlsx
+++ b/docs/StructureDefinition-cibmtr-medication-administration.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-08-09T17:12:26-05:00</t>
+    <t>2022-08-10T08:52:57-05:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/docs/StructureDefinition-cibmtr-medication-administration.xlsx
+++ b/docs/StructureDefinition-cibmtr-medication-administration.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-08-10T08:52:57-05:00</t>
+    <t>2022-08-10T09:42:24-05:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/docs/StructureDefinition-cibmtr-medication-administration.xlsx
+++ b/docs/StructureDefinition-cibmtr-medication-administration.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-08-10T09:42:24-05:00</t>
+    <t>2022-08-10T09:52:13-05:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/docs/StructureDefinition-cibmtr-medication-administration.xlsx
+++ b/docs/StructureDefinition-cibmtr-medication-administration.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-08-10T09:52:13-05:00</t>
+    <t>2022-08-10T12:44:20-05:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/docs/StructureDefinition-cibmtr-medication-administration.xlsx
+++ b/docs/StructureDefinition-cibmtr-medication-administration.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-08-10T12:44:20-05:00</t>
+    <t>2022-08-10T13:05:09-05:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/docs/StructureDefinition-cibmtr-medication-administration.xlsx
+++ b/docs/StructureDefinition-cibmtr-medication-administration.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-08-10T13:05:09-05:00</t>
+    <t>2022-08-10T13:28:25-05:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/docs/StructureDefinition-cibmtr-medication-administration.xlsx
+++ b/docs/StructureDefinition-cibmtr-medication-administration.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-08-10T13:28:25-05:00</t>
+    <t>2022-08-11T16:57:48-05:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/docs/StructureDefinition-cibmtr-medication-administration.xlsx
+++ b/docs/StructureDefinition-cibmtr-medication-administration.xlsx
@@ -33,7 +33,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>0.1.4a</t>
+    <t>0.1.5</t>
   </si>
   <si>
     <t>Name</t>
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-08-11T16:57:48-05:00</t>
+    <t>2022-08-24T16:05:20-05:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/docs/StructureDefinition-cibmtr-medication-administration.xlsx
+++ b/docs/StructureDefinition-cibmtr-medication-administration.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-08-24T16:05:20-05:00</t>
+    <t>2022-08-31T14:35:45-05:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/docs/StructureDefinition-cibmtr-medication-administration.xlsx
+++ b/docs/StructureDefinition-cibmtr-medication-administration.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-08-31T14:35:45-05:00</t>
+    <t>2022-09-02T15:43:08-05:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/docs/StructureDefinition-cibmtr-medication-administration.xlsx
+++ b/docs/StructureDefinition-cibmtr-medication-administration.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-09-02T15:43:08-05:00</t>
+    <t>2022-09-08T13:29:45-05:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/docs/StructureDefinition-cibmtr-medication-administration.xlsx
+++ b/docs/StructureDefinition-cibmtr-medication-administration.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2216" uniqueCount="448">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2216" uniqueCount="447">
   <si>
     <t>Property</t>
   </si>
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-09-08T13:29:45-05:00</t>
+    <t>2022-11-09T13:32:08-06:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -255,10 +255,6 @@
     <t>Describes the event of a patient consuming or otherwise being administered a medication.  This may be as simple as swallowing a tablet or it may be a long running infusion.  Related resources tie this event to the authorizing prescription, and the specific encounter between patient and health care practitioner.</t>
   </si>
   <si>
-    <t>dom-2:If the resource is contained in another resource, it SHALL NOT contain nested Resources {contained.contained.empty()}
-dom-3:If the resource is contained in another resource, it SHALL be referred to from elsewhere in the resource or SHALL refer to the containing resource {contained.where((('#'+id in (%resource.descendants().reference | %resource.descendants().as(canonical) | %resource.descendants().as(uri) | %resource.descendants().as(url))) or descendants().where(reference = '#').exists() or descendants().where(as(canonical) = '#').exists() or descendants().where(as(canonical) = '#').exists()).not()).trace('unmatched', id).empty()}dom-4:If a resource is contained in another resource, it SHALL NOT have a meta.versionId or a meta.lastUpdated {contained.meta.versionId.empty() and contained.meta.lastUpdated.empty()}dom-5:If a resource is contained in another resource, it SHALL NOT have a security label {contained.meta.security.empty()}dom-6:A resource should have narrative for robust management {text.`div`.exists()}mcode-reason-required:One of reasonCode or reasonReference SHALL be present {reasonCode.exists() or reasonReference.exists()}</t>
-  </si>
-  <si>
     <t>Event</t>
   </si>
   <si>
@@ -272,113 +268,113 @@
   </si>
   <si>
     <t>Y</t>
+  </si>
+  <si>
+    <t xml:space="preserve">id
+</t>
+  </si>
+  <si>
+    <t>Logical id of this artifact</t>
+  </si>
+  <si>
+    <t>The logical id of the resource, as used in the URL for the resource. Once assigned, this value never changes.</t>
+  </si>
+  <si>
+    <t>The only time that a resource does not have an id is when it is being submitted to the server using a create operation.</t>
+  </si>
+  <si>
+    <t>Resource.id</t>
+  </si>
+  <si>
+    <t>MedicationAdministration.meta</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Meta
+</t>
+  </si>
+  <si>
+    <t>Metadata about the resource</t>
+  </si>
+  <si>
+    <t>The metadata about the resource. This is content that is maintained by the infrastructure. Changes to the content might not always be associated with version changes to the resource.</t>
+  </si>
+  <si>
+    <t>Resource.meta</t>
+  </si>
+  <si>
+    <t>MedicationAdministration.meta.id</t>
   </si>
   <si>
     <t xml:space="preserve">string
 </t>
   </si>
   <si>
-    <t>Logical id of this artifact</t>
-  </si>
-  <si>
-    <t>The logical id of the resource, as used in the URL for the resource. Once assigned, this value never changes.</t>
-  </si>
-  <si>
-    <t>The only time that a resource does not have an id is when it is being submitted to the server using a create operation.</t>
-  </si>
-  <si>
-    <t>Resource.id</t>
-  </si>
-  <si>
-    <t>MedicationAdministration.meta</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Meta
+    <t>Unique id for inter-element referencing</t>
+  </si>
+  <si>
+    <t>Unique id for the element within a resource (for internal references). This may be any string value that does not contain spaces.</t>
+  </si>
+  <si>
+    <t>Element.id</t>
+  </si>
+  <si>
+    <t>n/a</t>
+  </si>
+  <si>
+    <t>MedicationAdministration.meta.extension</t>
+  </si>
+  <si>
+    <t>extensions
+user content</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Extension
 </t>
   </si>
   <si>
-    <t>Metadata about the resource</t>
-  </si>
-  <si>
-    <t>The metadata about the resource. This is content that is maintained by the infrastructure. Changes to the content might not always be associated with version changes to the resource.</t>
-  </si>
-  <si>
-    <t>Resource.meta</t>
+    <t>Additional content defined by implementations</t>
+  </si>
+  <si>
+    <t>May be used to represent additional information that is not part of the basic definition of the element. To make the use of extensions safe and manageable, there is a strict set of governance  applied to the definition and use of extensions. Though any implementer can define an extension, there is a set of requirements that SHALL be met as part of the definition of the extension.</t>
+  </si>
+  <si>
+    <t>There can be no stigma associated with the use of extensions by any application, project, or standard - regardless of the institution or jurisdiction that uses or defines the extensions.  The use of extensions is what allows the FHIR specification to retain a core level of simplicity for everyone.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">value:url}
+</t>
+  </si>
+  <si>
+    <t>Extensions are always sliced by (at least) url</t>
+  </si>
+  <si>
+    <t>open</t>
+  </si>
+  <si>
+    <t>Element.extension</t>
+  </si>
+  <si>
+    <t>ele-1:All FHIR elements must have a @value or children {hasValue() or (children().count() &gt; id.count())}
+ext-1:Must have either extensions or value[x], not both {extension.exists() != value.exists()}</t>
+  </si>
+  <si>
+    <t>MedicationAdministration.meta.versionId</t>
+  </si>
+  <si>
+    <t>Version specific identifier</t>
+  </si>
+  <si>
+    <t>The version specific identifier, as it appears in the version portion of the URL. This value changes when the resource is created, updated, or deleted.</t>
+  </si>
+  <si>
+    <t>The server assigns this value, and ignores what the client specifies, except in the case that the server is imposing version integrity on updates/deletes.</t>
+  </si>
+  <si>
+    <t>Meta.versionId</t>
   </si>
   <si>
     <t xml:space="preserve">ele-1:All FHIR elements must have a @value or children {hasValue() or (children().count() &gt; id.count())}
 </t>
-  </si>
-  <si>
-    <t>MedicationAdministration.meta.id</t>
-  </si>
-  <si>
-    <t>Unique id for inter-element referencing</t>
-  </si>
-  <si>
-    <t>Unique id for the element within a resource (for internal references). This may be any string value that does not contain spaces.</t>
-  </si>
-  <si>
-    <t>Element.id</t>
-  </si>
-  <si>
-    <t>n/a</t>
-  </si>
-  <si>
-    <t>MedicationAdministration.meta.extension</t>
-  </si>
-  <si>
-    <t>extensions
-user content</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Extension
-</t>
-  </si>
-  <si>
-    <t>Additional content defined by implementations</t>
-  </si>
-  <si>
-    <t>May be used to represent additional information that is not part of the basic definition of the element. To make the use of extensions safe and manageable, there is a strict set of governance  applied to the definition and use of extensions. Though any implementer can define an extension, there is a set of requirements that SHALL be met as part of the definition of the extension.</t>
-  </si>
-  <si>
-    <t>There can be no stigma associated with the use of extensions by any application, project, or standard - regardless of the institution or jurisdiction that uses or defines the extensions.  The use of extensions is what allows the FHIR specification to retain a core level of simplicity for everyone.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">value:url}
-</t>
-  </si>
-  <si>
-    <t>Extensions are always sliced by (at least) url</t>
-  </si>
-  <si>
-    <t>open</t>
-  </si>
-  <si>
-    <t>Element.extension</t>
-  </si>
-  <si>
-    <t>ele-1:All FHIR elements must have a @value or children {hasValue() or (children().count() &gt; id.count())}
-ext-1:Must have either extensions or value[x], not both {extension.exists() != value.exists()}</t>
-  </si>
-  <si>
-    <t>MedicationAdministration.meta.versionId</t>
-  </si>
-  <si>
-    <t xml:space="preserve">id
-</t>
-  </si>
-  <si>
-    <t>Version specific identifier</t>
-  </si>
-  <si>
-    <t>The version specific identifier, as it appears in the version portion of the URL. This value changes when the resource is created, updated, or deleted.</t>
-  </si>
-  <si>
-    <t>The server assigns this value, and ignores what the client specifies, except in the case that the server is imposing version integrity on updates/deletes.</t>
-  </si>
-  <si>
-    <t>Meta.versionId</t>
   </si>
   <si>
     <t>MedicationAdministration.meta.lastUpdated</t>
@@ -1993,13 +1989,13 @@
         <v>74</v>
       </c>
       <c r="AI2" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AJ2" t="s" s="2">
         <v>79</v>
       </c>
-      <c r="AJ2" t="s" s="2">
+      <c r="AK2" t="s" s="2">
         <v>80</v>
-      </c>
-      <c r="AK2" t="s" s="2">
-        <v>81</v>
       </c>
       <c r="AL2" t="s" s="2">
         <v>74</v>
@@ -2013,7 +2009,7 @@
     </row>
     <row r="3" hidden="true">
       <c r="A3" t="s" s="2">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="B3" s="2"/>
       <c r="C3" t="s" s="2">
@@ -2024,28 +2020,28 @@
         <v>75</v>
       </c>
       <c r="F3" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="G3" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="H3" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="I3" t="s" s="2">
         <v>83</v>
       </c>
-      <c r="G3" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="H3" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="I3" t="s" s="2">
+      <c r="J3" t="s" s="2">
         <v>84</v>
       </c>
-      <c r="J3" t="s" s="2">
+      <c r="K3" t="s" s="2">
         <v>85</v>
       </c>
-      <c r="K3" t="s" s="2">
+      <c r="L3" t="s" s="2">
         <v>86</v>
       </c>
-      <c r="L3" t="s" s="2">
+      <c r="M3" t="s" s="2">
         <v>87</v>
-      </c>
-      <c r="M3" t="s" s="2">
-        <v>88</v>
       </c>
       <c r="N3" s="2"/>
       <c r="O3" t="s" s="2">
@@ -2095,13 +2091,13 @@
         <v>74</v>
       </c>
       <c r="AE3" t="s" s="2">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="AF3" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AG3" t="s" s="2">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="AH3" t="s" s="2">
         <v>74</v>
@@ -2127,7 +2123,7 @@
     </row>
     <row r="4" hidden="true">
       <c r="A4" t="s" s="2">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="B4" s="2"/>
       <c r="C4" t="s" s="2">
@@ -2138,25 +2134,25 @@
         <v>75</v>
       </c>
       <c r="F4" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="G4" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="H4" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="I4" t="s" s="2">
         <v>83</v>
       </c>
-      <c r="G4" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="H4" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="I4" t="s" s="2">
-        <v>84</v>
-      </c>
       <c r="J4" t="s" s="2">
+        <v>90</v>
+      </c>
+      <c r="K4" t="s" s="2">
         <v>91</v>
       </c>
-      <c r="K4" t="s" s="2">
+      <c r="L4" t="s" s="2">
         <v>92</v>
-      </c>
-      <c r="L4" t="s" s="2">
-        <v>93</v>
       </c>
       <c r="M4" s="2"/>
       <c r="N4" s="2"/>
@@ -2207,19 +2203,19 @@
         <v>74</v>
       </c>
       <c r="AE4" t="s" s="2">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="AF4" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AG4" t="s" s="2">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="AH4" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AI4" t="s" s="2">
-        <v>95</v>
+        <v>74</v>
       </c>
       <c r="AJ4" t="s" s="2">
         <v>74</v>
@@ -2239,7 +2235,7 @@
     </row>
     <row r="5" hidden="true">
       <c r="A5" t="s" s="2">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="B5" s="2"/>
       <c r="C5" t="s" s="2">
@@ -2250,7 +2246,7 @@
         <v>75</v>
       </c>
       <c r="F5" t="s" s="2">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="G5" t="s" s="2">
         <v>74</v>
@@ -2262,13 +2258,13 @@
         <v>74</v>
       </c>
       <c r="J5" t="s" s="2">
-        <v>85</v>
+        <v>95</v>
       </c>
       <c r="K5" t="s" s="2">
+        <v>96</v>
+      </c>
+      <c r="L5" t="s" s="2">
         <v>97</v>
-      </c>
-      <c r="L5" t="s" s="2">
-        <v>98</v>
       </c>
       <c r="M5" s="2"/>
       <c r="N5" s="2"/>
@@ -2319,25 +2315,25 @@
         <v>74</v>
       </c>
       <c r="AE5" t="s" s="2">
+        <v>98</v>
+      </c>
+      <c r="AF5" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AG5" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AH5" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AI5" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AJ5" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AK5" t="s" s="2">
         <v>99</v>
-      </c>
-      <c r="AF5" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AG5" t="s" s="2">
-        <v>83</v>
-      </c>
-      <c r="AH5" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AI5" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AJ5" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AK5" t="s" s="2">
-        <v>100</v>
       </c>
       <c r="AL5" t="s" s="2">
         <v>74</v>
@@ -2351,11 +2347,11 @@
     </row>
     <row r="6" hidden="true">
       <c r="A6" t="s" s="2">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="B6" s="2"/>
       <c r="C6" t="s" s="2">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="D6" s="2"/>
       <c r="E6" t="s" s="2">
@@ -2374,16 +2370,16 @@
         <v>74</v>
       </c>
       <c r="J6" t="s" s="2">
+        <v>102</v>
+      </c>
+      <c r="K6" t="s" s="2">
         <v>103</v>
       </c>
-      <c r="K6" t="s" s="2">
+      <c r="L6" t="s" s="2">
         <v>104</v>
       </c>
-      <c r="L6" t="s" s="2">
+      <c r="M6" t="s" s="2">
         <v>105</v>
-      </c>
-      <c r="M6" t="s" s="2">
-        <v>106</v>
       </c>
       <c r="N6" s="2"/>
       <c r="O6" t="s" s="2">
@@ -2421,19 +2417,19 @@
         <v>74</v>
       </c>
       <c r="AA6" t="s" s="2">
+        <v>106</v>
+      </c>
+      <c r="AB6" t="s" s="2">
         <v>107</v>
       </c>
-      <c r="AB6" t="s" s="2">
+      <c r="AC6" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AD6" t="s" s="2">
         <v>108</v>
       </c>
-      <c r="AC6" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AD6" t="s" s="2">
+      <c r="AE6" t="s" s="2">
         <v>109</v>
-      </c>
-      <c r="AE6" t="s" s="2">
-        <v>110</v>
       </c>
       <c r="AF6" t="s" s="2">
         <v>75</v>
@@ -2445,13 +2441,13 @@
         <v>74</v>
       </c>
       <c r="AI6" t="s" s="2">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="AJ6" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AK6" t="s" s="2">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="AL6" t="s" s="2">
         <v>74</v>
@@ -2465,7 +2461,7 @@
     </row>
     <row r="7" hidden="true">
       <c r="A7" t="s" s="2">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="B7" s="2"/>
       <c r="C7" t="s" s="2">
@@ -2476,28 +2472,28 @@
         <v>75</v>
       </c>
       <c r="F7" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="G7" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="H7" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="I7" t="s" s="2">
         <v>83</v>
       </c>
-      <c r="G7" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="H7" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="I7" t="s" s="2">
+      <c r="J7" t="s" s="2">
         <v>84</v>
       </c>
-      <c r="J7" t="s" s="2">
+      <c r="K7" t="s" s="2">
+        <v>112</v>
+      </c>
+      <c r="L7" t="s" s="2">
         <v>113</v>
       </c>
-      <c r="K7" t="s" s="2">
+      <c r="M7" t="s" s="2">
         <v>114</v>
-      </c>
-      <c r="L7" t="s" s="2">
-        <v>115</v>
-      </c>
-      <c r="M7" t="s" s="2">
-        <v>116</v>
       </c>
       <c r="N7" s="2"/>
       <c r="O7" t="s" s="2">
@@ -2547,19 +2543,19 @@
         <v>74</v>
       </c>
       <c r="AE7" t="s" s="2">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="AF7" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AG7" t="s" s="2">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="AH7" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AI7" t="s" s="2">
-        <v>95</v>
+        <v>116</v>
       </c>
       <c r="AJ7" t="s" s="2">
         <v>74</v>
@@ -2579,7 +2575,7 @@
     </row>
     <row r="8" hidden="true">
       <c r="A8" t="s" s="2">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="B8" s="2"/>
       <c r="C8" t="s" s="2">
@@ -2590,28 +2586,28 @@
         <v>75</v>
       </c>
       <c r="F8" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="G8" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="H8" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="I8" t="s" s="2">
         <v>83</v>
       </c>
-      <c r="G8" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="H8" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="I8" t="s" s="2">
-        <v>84</v>
-      </c>
       <c r="J8" t="s" s="2">
+        <v>118</v>
+      </c>
+      <c r="K8" t="s" s="2">
         <v>119</v>
       </c>
-      <c r="K8" t="s" s="2">
+      <c r="L8" t="s" s="2">
         <v>120</v>
       </c>
-      <c r="L8" t="s" s="2">
+      <c r="M8" t="s" s="2">
         <v>121</v>
-      </c>
-      <c r="M8" t="s" s="2">
-        <v>122</v>
       </c>
       <c r="N8" s="2"/>
       <c r="O8" t="s" s="2">
@@ -2661,19 +2657,19 @@
         <v>74</v>
       </c>
       <c r="AE8" t="s" s="2">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="AF8" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AG8" t="s" s="2">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="AH8" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AI8" t="s" s="2">
-        <v>95</v>
+        <v>116</v>
       </c>
       <c r="AJ8" t="s" s="2">
         <v>74</v>
@@ -2693,7 +2689,7 @@
     </row>
     <row r="9" hidden="true">
       <c r="A9" t="s" s="2">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="B9" s="2"/>
       <c r="C9" t="s" s="2">
@@ -2704,28 +2700,28 @@
         <v>75</v>
       </c>
       <c r="F9" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="G9" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="H9" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="I9" t="s" s="2">
         <v>83</v>
       </c>
-      <c r="G9" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="H9" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="I9" t="s" s="2">
-        <v>84</v>
-      </c>
       <c r="J9" t="s" s="2">
+        <v>124</v>
+      </c>
+      <c r="K9" t="s" s="2">
         <v>125</v>
       </c>
-      <c r="K9" t="s" s="2">
+      <c r="L9" t="s" s="2">
         <v>126</v>
       </c>
-      <c r="L9" t="s" s="2">
+      <c r="M9" t="s" s="2">
         <v>127</v>
-      </c>
-      <c r="M9" t="s" s="2">
-        <v>128</v>
       </c>
       <c r="N9" s="2"/>
       <c r="O9" t="s" s="2">
@@ -2775,19 +2771,19 @@
         <v>74</v>
       </c>
       <c r="AE9" t="s" s="2">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="AF9" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AG9" t="s" s="2">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="AH9" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AI9" t="s" s="2">
-        <v>95</v>
+        <v>116</v>
       </c>
       <c r="AJ9" t="s" s="2">
         <v>74</v>
@@ -2807,7 +2803,7 @@
     </row>
     <row r="10" hidden="true">
       <c r="A10" t="s" s="2">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="B10" s="2"/>
       <c r="C10" t="s" s="2">
@@ -2827,19 +2823,19 @@
         <v>74</v>
       </c>
       <c r="I10" t="s" s="2">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="J10" t="s" s="2">
+        <v>130</v>
+      </c>
+      <c r="K10" t="s" s="2">
         <v>131</v>
       </c>
-      <c r="K10" t="s" s="2">
+      <c r="L10" t="s" s="2">
         <v>132</v>
       </c>
-      <c r="L10" t="s" s="2">
+      <c r="M10" t="s" s="2">
         <v>133</v>
-      </c>
-      <c r="M10" t="s" s="2">
-        <v>134</v>
       </c>
       <c r="N10" s="2"/>
       <c r="O10" t="s" s="2">
@@ -2889,7 +2885,7 @@
         <v>74</v>
       </c>
       <c r="AE10" t="s" s="2">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="AF10" t="s" s="2">
         <v>75</v>
@@ -2901,7 +2897,7 @@
         <v>74</v>
       </c>
       <c r="AI10" t="s" s="2">
-        <v>95</v>
+        <v>116</v>
       </c>
       <c r="AJ10" t="s" s="2">
         <v>74</v>
@@ -2921,7 +2917,7 @@
     </row>
     <row r="11" hidden="true">
       <c r="A11" t="s" s="2">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="B11" s="2"/>
       <c r="C11" t="s" s="2">
@@ -2929,7 +2925,7 @@
       </c>
       <c r="D11" s="2"/>
       <c r="E11" t="s" s="2">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="F11" t="s" s="2">
         <v>76</v>
@@ -2941,19 +2937,19 @@
         <v>74</v>
       </c>
       <c r="I11" t="s" s="2">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="J11" t="s" s="2">
+        <v>136</v>
+      </c>
+      <c r="K11" t="s" s="2">
         <v>137</v>
       </c>
-      <c r="K11" t="s" s="2">
+      <c r="L11" t="s" s="2">
         <v>138</v>
       </c>
-      <c r="L11" t="s" s="2">
+      <c r="M11" t="s" s="2">
         <v>139</v>
-      </c>
-      <c r="M11" t="s" s="2">
-        <v>140</v>
       </c>
       <c r="N11" s="2"/>
       <c r="O11" t="s" s="2">
@@ -2979,31 +2975,31 @@
         <v>74</v>
       </c>
       <c r="W11" t="s" s="2">
+        <v>140</v>
+      </c>
+      <c r="X11" t="s" s="2">
         <v>141</v>
       </c>
-      <c r="X11" t="s" s="2">
+      <c r="Y11" t="s" s="2">
         <v>142</v>
       </c>
-      <c r="Y11" t="s" s="2">
+      <c r="Z11" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AA11" t="s" s="2">
         <v>143</v>
       </c>
-      <c r="Z11" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AA11" t="s" s="2">
+      <c r="AB11" t="s" s="2">
         <v>144</v>
       </c>
-      <c r="AB11" t="s" s="2">
+      <c r="AC11" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AD11" t="s" s="2">
+        <v>108</v>
+      </c>
+      <c r="AE11" t="s" s="2">
         <v>145</v>
-      </c>
-      <c r="AC11" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AD11" t="s" s="2">
-        <v>109</v>
-      </c>
-      <c r="AE11" t="s" s="2">
-        <v>146</v>
       </c>
       <c r="AF11" t="s" s="2">
         <v>75</v>
@@ -3015,7 +3011,7 @@
         <v>74</v>
       </c>
       <c r="AI11" t="s" s="2">
-        <v>95</v>
+        <v>116</v>
       </c>
       <c r="AJ11" t="s" s="2">
         <v>74</v>
@@ -3035,41 +3031,41 @@
     </row>
     <row r="12">
       <c r="A12" t="s" s="2">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="B12" t="s" s="2">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="C12" t="s" s="2">
         <v>74</v>
       </c>
       <c r="D12" s="2"/>
       <c r="E12" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="F12" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="G12" t="s" s="2">
         <v>83</v>
       </c>
-      <c r="F12" t="s" s="2">
+      <c r="H12" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="I12" t="s" s="2">
         <v>83</v>
       </c>
-      <c r="G12" t="s" s="2">
-        <v>84</v>
-      </c>
-      <c r="H12" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="I12" t="s" s="2">
-        <v>84</v>
-      </c>
       <c r="J12" t="s" s="2">
+        <v>136</v>
+      </c>
+      <c r="K12" t="s" s="2">
         <v>137</v>
       </c>
-      <c r="K12" t="s" s="2">
+      <c r="L12" t="s" s="2">
         <v>138</v>
       </c>
-      <c r="L12" t="s" s="2">
+      <c r="M12" t="s" s="2">
         <v>139</v>
-      </c>
-      <c r="M12" t="s" s="2">
-        <v>140</v>
       </c>
       <c r="N12" s="2"/>
       <c r="O12" t="s" s="2">
@@ -3095,14 +3091,14 @@
         <v>74</v>
       </c>
       <c r="W12" t="s" s="2">
+        <v>140</v>
+      </c>
+      <c r="X12" t="s" s="2">
         <v>141</v>
       </c>
-      <c r="X12" t="s" s="2">
+      <c r="Y12" t="s" s="2">
         <v>142</v>
       </c>
-      <c r="Y12" t="s" s="2">
-        <v>143</v>
-      </c>
       <c r="Z12" t="s" s="2">
         <v>74</v>
       </c>
@@ -3119,7 +3115,7 @@
         <v>74</v>
       </c>
       <c r="AE12" t="s" s="2">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="AF12" t="s" s="2">
         <v>75</v>
@@ -3131,7 +3127,7 @@
         <v>74</v>
       </c>
       <c r="AI12" t="s" s="2">
-        <v>95</v>
+        <v>116</v>
       </c>
       <c r="AJ12" t="s" s="2">
         <v>74</v>
@@ -3151,7 +3147,7 @@
     </row>
     <row r="13" hidden="true">
       <c r="A13" t="s" s="2">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="B13" s="2"/>
       <c r="C13" t="s" s="2">
@@ -3162,7 +3158,7 @@
         <v>75</v>
       </c>
       <c r="F13" t="s" s="2">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="G13" t="s" s="2">
         <v>74</v>
@@ -3174,13 +3170,13 @@
         <v>74</v>
       </c>
       <c r="J13" t="s" s="2">
-        <v>85</v>
+        <v>95</v>
       </c>
       <c r="K13" t="s" s="2">
+        <v>96</v>
+      </c>
+      <c r="L13" t="s" s="2">
         <v>97</v>
-      </c>
-      <c r="L13" t="s" s="2">
-        <v>98</v>
       </c>
       <c r="M13" s="2"/>
       <c r="N13" s="2"/>
@@ -3231,25 +3227,25 @@
         <v>74</v>
       </c>
       <c r="AE13" t="s" s="2">
+        <v>98</v>
+      </c>
+      <c r="AF13" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AG13" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AH13" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AI13" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AJ13" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AK13" t="s" s="2">
         <v>99</v>
-      </c>
-      <c r="AF13" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AG13" t="s" s="2">
-        <v>83</v>
-      </c>
-      <c r="AH13" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AI13" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AJ13" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AK13" t="s" s="2">
-        <v>100</v>
       </c>
       <c r="AL13" t="s" s="2">
         <v>74</v>
@@ -3263,11 +3259,11 @@
     </row>
     <row r="14" hidden="true">
       <c r="A14" t="s" s="2">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="B14" s="2"/>
       <c r="C14" t="s" s="2">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="D14" s="2"/>
       <c r="E14" t="s" s="2">
@@ -3286,16 +3282,16 @@
         <v>74</v>
       </c>
       <c r="J14" t="s" s="2">
+        <v>102</v>
+      </c>
+      <c r="K14" t="s" s="2">
         <v>103</v>
       </c>
-      <c r="K14" t="s" s="2">
+      <c r="L14" t="s" s="2">
         <v>104</v>
       </c>
-      <c r="L14" t="s" s="2">
+      <c r="M14" t="s" s="2">
         <v>105</v>
-      </c>
-      <c r="M14" t="s" s="2">
-        <v>106</v>
       </c>
       <c r="N14" s="2"/>
       <c r="O14" t="s" s="2">
@@ -3333,19 +3329,19 @@
         <v>74</v>
       </c>
       <c r="AA14" t="s" s="2">
+        <v>106</v>
+      </c>
+      <c r="AB14" t="s" s="2">
         <v>107</v>
       </c>
-      <c r="AB14" t="s" s="2">
+      <c r="AC14" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AD14" t="s" s="2">
         <v>108</v>
       </c>
-      <c r="AC14" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AD14" t="s" s="2">
+      <c r="AE14" t="s" s="2">
         <v>109</v>
-      </c>
-      <c r="AE14" t="s" s="2">
-        <v>110</v>
       </c>
       <c r="AF14" t="s" s="2">
         <v>75</v>
@@ -3357,13 +3353,13 @@
         <v>74</v>
       </c>
       <c r="AI14" t="s" s="2">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="AJ14" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AK14" t="s" s="2">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="AL14" t="s" s="2">
         <v>74</v>
@@ -3377,7 +3373,7 @@
     </row>
     <row r="15" hidden="true">
       <c r="A15" t="s" s="2">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="B15" s="2"/>
       <c r="C15" t="s" s="2">
@@ -3385,34 +3381,34 @@
       </c>
       <c r="D15" s="2"/>
       <c r="E15" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="F15" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="G15" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="H15" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="I15" t="s" s="2">
         <v>83</v>
       </c>
-      <c r="F15" t="s" s="2">
-        <v>83</v>
-      </c>
-      <c r="G15" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="H15" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="I15" t="s" s="2">
-        <v>84</v>
-      </c>
       <c r="J15" t="s" s="2">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="K15" t="s" s="2">
+        <v>150</v>
+      </c>
+      <c r="L15" t="s" s="2">
         <v>151</v>
       </c>
-      <c r="L15" t="s" s="2">
+      <c r="M15" t="s" s="2">
         <v>152</v>
       </c>
-      <c r="M15" t="s" s="2">
+      <c r="N15" t="s" s="2">
         <v>153</v>
-      </c>
-      <c r="N15" t="s" s="2">
-        <v>154</v>
       </c>
       <c r="O15" t="s" s="2">
         <v>74</v>
@@ -3422,70 +3418,70 @@
         <v>74</v>
       </c>
       <c r="R15" t="s" s="2">
+        <v>154</v>
+      </c>
+      <c r="S15" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="T15" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="U15" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="V15" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="W15" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="X15" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="Y15" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="Z15" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AA15" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AB15" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AC15" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AD15" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AE15" t="s" s="2">
         <v>155</v>
       </c>
-      <c r="S15" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="T15" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="U15" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="V15" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="W15" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="X15" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="Y15" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="Z15" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AA15" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AB15" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AC15" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AD15" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AE15" t="s" s="2">
+      <c r="AF15" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AG15" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AH15" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AI15" t="s" s="2">
+        <v>116</v>
+      </c>
+      <c r="AJ15" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AK15" t="s" s="2">
         <v>156</v>
       </c>
-      <c r="AF15" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AG15" t="s" s="2">
-        <v>83</v>
-      </c>
-      <c r="AH15" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AI15" t="s" s="2">
-        <v>95</v>
-      </c>
-      <c r="AJ15" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AK15" t="s" s="2">
+      <c r="AL15" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AM15" t="s" s="2">
         <v>157</v>
-      </c>
-      <c r="AL15" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AM15" t="s" s="2">
-        <v>158</v>
       </c>
       <c r="AN15" t="s" s="2">
         <v>74</v>
@@ -3493,7 +3489,7 @@
     </row>
     <row r="16" hidden="true">
       <c r="A16" t="s" s="2">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="B16" s="2"/>
       <c r="C16" t="s" s="2">
@@ -3504,28 +3500,28 @@
         <v>75</v>
       </c>
       <c r="F16" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="G16" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="H16" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="I16" t="s" s="2">
         <v>83</v>
       </c>
-      <c r="G16" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="H16" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="I16" t="s" s="2">
-        <v>84</v>
-      </c>
       <c r="J16" t="s" s="2">
-        <v>85</v>
+        <v>95</v>
       </c>
       <c r="K16" t="s" s="2">
+        <v>159</v>
+      </c>
+      <c r="L16" t="s" s="2">
         <v>160</v>
       </c>
-      <c r="L16" t="s" s="2">
+      <c r="M16" t="s" s="2">
         <v>161</v>
-      </c>
-      <c r="M16" t="s" s="2">
-        <v>162</v>
       </c>
       <c r="N16" s="2"/>
       <c r="O16" t="s" s="2">
@@ -3575,31 +3571,31 @@
         <v>74</v>
       </c>
       <c r="AE16" t="s" s="2">
+        <v>162</v>
+      </c>
+      <c r="AF16" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AG16" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AH16" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AI16" t="s" s="2">
+        <v>116</v>
+      </c>
+      <c r="AJ16" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AK16" t="s" s="2">
         <v>163</v>
       </c>
-      <c r="AF16" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AG16" t="s" s="2">
-        <v>83</v>
-      </c>
-      <c r="AH16" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AI16" t="s" s="2">
-        <v>95</v>
-      </c>
-      <c r="AJ16" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AK16" t="s" s="2">
+      <c r="AL16" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AM16" t="s" s="2">
         <v>164</v>
-      </c>
-      <c r="AL16" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AM16" t="s" s="2">
-        <v>165</v>
       </c>
       <c r="AN16" t="s" s="2">
         <v>74</v>
@@ -3607,7 +3603,7 @@
     </row>
     <row r="17" hidden="true">
       <c r="A17" t="s" s="2">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="B17" s="2"/>
       <c r="C17" t="s" s="2">
@@ -3615,32 +3611,32 @@
       </c>
       <c r="D17" s="2"/>
       <c r="E17" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="F17" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="G17" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="H17" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="I17" t="s" s="2">
         <v>83</v>
       </c>
-      <c r="F17" t="s" s="2">
-        <v>83</v>
-      </c>
-      <c r="G17" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="H17" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="I17" t="s" s="2">
-        <v>84</v>
-      </c>
       <c r="J17" t="s" s="2">
+        <v>166</v>
+      </c>
+      <c r="K17" t="s" s="2">
         <v>167</v>
       </c>
-      <c r="K17" t="s" s="2">
+      <c r="L17" t="s" s="2">
         <v>168</v>
-      </c>
-      <c r="L17" t="s" s="2">
-        <v>169</v>
       </c>
       <c r="M17" s="2"/>
       <c r="N17" t="s" s="2">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="O17" t="s" s="2">
         <v>74</v>
@@ -3689,31 +3685,31 @@
         <v>74</v>
       </c>
       <c r="AE17" t="s" s="2">
+        <v>170</v>
+      </c>
+      <c r="AF17" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AG17" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AH17" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AI17" t="s" s="2">
+        <v>116</v>
+      </c>
+      <c r="AJ17" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AK17" t="s" s="2">
         <v>171</v>
       </c>
-      <c r="AF17" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AG17" t="s" s="2">
-        <v>83</v>
-      </c>
-      <c r="AH17" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AI17" t="s" s="2">
-        <v>95</v>
-      </c>
-      <c r="AJ17" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AK17" t="s" s="2">
+      <c r="AL17" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AM17" t="s" s="2">
         <v>172</v>
-      </c>
-      <c r="AL17" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AM17" t="s" s="2">
-        <v>173</v>
       </c>
       <c r="AN17" t="s" s="2">
         <v>74</v>
@@ -3721,7 +3717,7 @@
     </row>
     <row r="18" hidden="true">
       <c r="A18" t="s" s="2">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="B18" s="2"/>
       <c r="C18" t="s" s="2">
@@ -3732,29 +3728,29 @@
         <v>75</v>
       </c>
       <c r="F18" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="G18" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="H18" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="I18" t="s" s="2">
         <v>83</v>
       </c>
-      <c r="G18" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="H18" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="I18" t="s" s="2">
-        <v>84</v>
-      </c>
       <c r="J18" t="s" s="2">
-        <v>85</v>
+        <v>95</v>
       </c>
       <c r="K18" t="s" s="2">
+        <v>174</v>
+      </c>
+      <c r="L18" t="s" s="2">
         <v>175</v>
-      </c>
-      <c r="L18" t="s" s="2">
-        <v>176</v>
       </c>
       <c r="M18" s="2"/>
       <c r="N18" t="s" s="2">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="O18" t="s" s="2">
         <v>74</v>
@@ -3803,31 +3799,31 @@
         <v>74</v>
       </c>
       <c r="AE18" t="s" s="2">
+        <v>177</v>
+      </c>
+      <c r="AF18" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AG18" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AH18" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AI18" t="s" s="2">
+        <v>116</v>
+      </c>
+      <c r="AJ18" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AK18" t="s" s="2">
         <v>178</v>
       </c>
-      <c r="AF18" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AG18" t="s" s="2">
-        <v>83</v>
-      </c>
-      <c r="AH18" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AI18" t="s" s="2">
-        <v>95</v>
-      </c>
-      <c r="AJ18" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AK18" t="s" s="2">
+      <c r="AL18" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AM18" t="s" s="2">
         <v>179</v>
-      </c>
-      <c r="AL18" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AM18" t="s" s="2">
-        <v>180</v>
       </c>
       <c r="AN18" t="s" s="2">
         <v>74</v>
@@ -3835,7 +3831,7 @@
     </row>
     <row r="19" hidden="true">
       <c r="A19" t="s" s="2">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="B19" s="2"/>
       <c r="C19" t="s" s="2">
@@ -3846,31 +3842,31 @@
         <v>75</v>
       </c>
       <c r="F19" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="G19" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="H19" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="I19" t="s" s="2">
         <v>83</v>
       </c>
-      <c r="G19" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="H19" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="I19" t="s" s="2">
-        <v>84</v>
-      </c>
       <c r="J19" t="s" s="2">
+        <v>181</v>
+      </c>
+      <c r="K19" t="s" s="2">
         <v>182</v>
       </c>
-      <c r="K19" t="s" s="2">
+      <c r="L19" t="s" s="2">
         <v>183</v>
       </c>
-      <c r="L19" t="s" s="2">
+      <c r="M19" t="s" s="2">
         <v>184</v>
       </c>
-      <c r="M19" t="s" s="2">
+      <c r="N19" t="s" s="2">
         <v>185</v>
-      </c>
-      <c r="N19" t="s" s="2">
-        <v>186</v>
       </c>
       <c r="O19" t="s" s="2">
         <v>74</v>
@@ -3919,31 +3915,31 @@
         <v>74</v>
       </c>
       <c r="AE19" t="s" s="2">
+        <v>186</v>
+      </c>
+      <c r="AF19" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AG19" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AH19" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AI19" t="s" s="2">
+        <v>116</v>
+      </c>
+      <c r="AJ19" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AK19" t="s" s="2">
         <v>187</v>
       </c>
-      <c r="AF19" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AG19" t="s" s="2">
-        <v>83</v>
-      </c>
-      <c r="AH19" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AI19" t="s" s="2">
-        <v>95</v>
-      </c>
-      <c r="AJ19" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AK19" t="s" s="2">
+      <c r="AL19" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AM19" t="s" s="2">
         <v>188</v>
-      </c>
-      <c r="AL19" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AM19" t="s" s="2">
-        <v>189</v>
       </c>
       <c r="AN19" t="s" s="2">
         <v>74</v>
@@ -3951,7 +3947,7 @@
     </row>
     <row r="20" hidden="true">
       <c r="A20" t="s" s="2">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="B20" s="2"/>
       <c r="C20" t="s" s="2">
@@ -3971,19 +3967,19 @@
         <v>74</v>
       </c>
       <c r="I20" t="s" s="2">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="J20" t="s" s="2">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="K20" t="s" s="2">
+        <v>190</v>
+      </c>
+      <c r="L20" t="s" s="2">
         <v>191</v>
       </c>
-      <c r="L20" t="s" s="2">
+      <c r="M20" t="s" s="2">
         <v>192</v>
-      </c>
-      <c r="M20" t="s" s="2">
-        <v>193</v>
       </c>
       <c r="N20" s="2"/>
       <c r="O20" t="s" s="2">
@@ -4009,31 +4005,31 @@
         <v>74</v>
       </c>
       <c r="W20" t="s" s="2">
+        <v>193</v>
+      </c>
+      <c r="X20" t="s" s="2">
         <v>194</v>
       </c>
-      <c r="X20" t="s" s="2">
+      <c r="Y20" t="s" s="2">
         <v>195</v>
       </c>
-      <c r="Y20" t="s" s="2">
+      <c r="Z20" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AA20" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AB20" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AC20" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AD20" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AE20" t="s" s="2">
         <v>196</v>
-      </c>
-      <c r="Z20" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AA20" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AB20" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AC20" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AD20" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AE20" t="s" s="2">
-        <v>197</v>
       </c>
       <c r="AF20" t="s" s="2">
         <v>75</v>
@@ -4045,7 +4041,7 @@
         <v>74</v>
       </c>
       <c r="AI20" t="s" s="2">
-        <v>95</v>
+        <v>116</v>
       </c>
       <c r="AJ20" t="s" s="2">
         <v>74</v>
@@ -4065,7 +4061,7 @@
     </row>
     <row r="21" hidden="true">
       <c r="A21" t="s" s="2">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="B21" s="2"/>
       <c r="C21" t="s" s="2">
@@ -4076,28 +4072,28 @@
         <v>75</v>
       </c>
       <c r="F21" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="G21" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="H21" t="s" s="2">
         <v>83</v>
       </c>
-      <c r="G21" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="H21" t="s" s="2">
-        <v>84</v>
-      </c>
       <c r="I21" t="s" s="2">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="J21" t="s" s="2">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="K21" t="s" s="2">
+        <v>198</v>
+      </c>
+      <c r="L21" t="s" s="2">
         <v>199</v>
       </c>
-      <c r="L21" t="s" s="2">
+      <c r="M21" t="s" s="2">
         <v>200</v>
-      </c>
-      <c r="M21" t="s" s="2">
-        <v>201</v>
       </c>
       <c r="N21" s="2"/>
       <c r="O21" t="s" s="2">
@@ -4147,19 +4143,19 @@
         <v>74</v>
       </c>
       <c r="AE21" t="s" s="2">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="AF21" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AG21" t="s" s="2">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="AH21" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AI21" t="s" s="2">
-        <v>95</v>
+        <v>116</v>
       </c>
       <c r="AJ21" t="s" s="2">
         <v>74</v>
@@ -4179,7 +4175,7 @@
     </row>
     <row r="22" hidden="true">
       <c r="A22" t="s" s="2">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="B22" s="2"/>
       <c r="C22" t="s" s="2">
@@ -4190,7 +4186,7 @@
         <v>75</v>
       </c>
       <c r="F22" t="s" s="2">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="G22" t="s" s="2">
         <v>74</v>
@@ -4202,16 +4198,16 @@
         <v>74</v>
       </c>
       <c r="J22" t="s" s="2">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="K22" t="s" s="2">
+        <v>203</v>
+      </c>
+      <c r="L22" t="s" s="2">
         <v>204</v>
       </c>
-      <c r="L22" t="s" s="2">
+      <c r="M22" t="s" s="2">
         <v>205</v>
-      </c>
-      <c r="M22" t="s" s="2">
-        <v>206</v>
       </c>
       <c r="N22" s="2"/>
       <c r="O22" t="s" s="2">
@@ -4237,43 +4233,43 @@
         <v>74</v>
       </c>
       <c r="W22" t="s" s="2">
+        <v>206</v>
+      </c>
+      <c r="X22" t="s" s="2">
         <v>207</v>
       </c>
-      <c r="X22" t="s" s="2">
+      <c r="Y22" t="s" s="2">
         <v>208</v>
       </c>
-      <c r="Y22" t="s" s="2">
+      <c r="Z22" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AA22" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AB22" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AC22" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AD22" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AE22" t="s" s="2">
         <v>209</v>
       </c>
-      <c r="Z22" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AA22" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AB22" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AC22" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AD22" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AE22" t="s" s="2">
-        <v>210</v>
-      </c>
       <c r="AF22" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AG22" t="s" s="2">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="AH22" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AI22" t="s" s="2">
-        <v>95</v>
+        <v>116</v>
       </c>
       <c r="AJ22" t="s" s="2">
         <v>74</v>
@@ -4293,18 +4289,18 @@
     </row>
     <row r="23" hidden="true">
       <c r="A23" t="s" s="2">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="B23" s="2"/>
       <c r="C23" t="s" s="2">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="D23" s="2"/>
       <c r="E23" t="s" s="2">
         <v>75</v>
       </c>
       <c r="F23" t="s" s="2">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="G23" t="s" s="2">
         <v>74</v>
@@ -4316,16 +4312,16 @@
         <v>74</v>
       </c>
       <c r="J23" t="s" s="2">
+        <v>212</v>
+      </c>
+      <c r="K23" t="s" s="2">
         <v>213</v>
       </c>
-      <c r="K23" t="s" s="2">
+      <c r="L23" t="s" s="2">
         <v>214</v>
       </c>
-      <c r="L23" t="s" s="2">
+      <c r="M23" t="s" s="2">
         <v>215</v>
-      </c>
-      <c r="M23" t="s" s="2">
-        <v>216</v>
       </c>
       <c r="N23" s="2"/>
       <c r="O23" t="s" s="2">
@@ -4375,25 +4371,25 @@
         <v>74</v>
       </c>
       <c r="AE23" t="s" s="2">
+        <v>216</v>
+      </c>
+      <c r="AF23" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AG23" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AH23" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AI23" t="s" s="2">
+        <v>116</v>
+      </c>
+      <c r="AJ23" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AK23" t="s" s="2">
         <v>217</v>
-      </c>
-      <c r="AF23" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AG23" t="s" s="2">
-        <v>83</v>
-      </c>
-      <c r="AH23" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AI23" t="s" s="2">
-        <v>95</v>
-      </c>
-      <c r="AJ23" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AK23" t="s" s="2">
-        <v>218</v>
       </c>
       <c r="AL23" t="s" s="2">
         <v>74</v>
@@ -4407,11 +4403,11 @@
     </row>
     <row r="24" hidden="true">
       <c r="A24" t="s" s="2">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="B24" s="2"/>
       <c r="C24" t="s" s="2">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="D24" s="2"/>
       <c r="E24" t="s" s="2">
@@ -4430,16 +4426,16 @@
         <v>74</v>
       </c>
       <c r="J24" t="s" s="2">
+        <v>220</v>
+      </c>
+      <c r="K24" t="s" s="2">
         <v>221</v>
       </c>
-      <c r="K24" t="s" s="2">
+      <c r="L24" t="s" s="2">
         <v>222</v>
       </c>
-      <c r="L24" t="s" s="2">
+      <c r="M24" t="s" s="2">
         <v>223</v>
-      </c>
-      <c r="M24" t="s" s="2">
-        <v>224</v>
       </c>
       <c r="N24" s="2"/>
       <c r="O24" t="s" s="2">
@@ -4489,7 +4485,7 @@
         <v>74</v>
       </c>
       <c r="AE24" t="s" s="2">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="AF24" t="s" s="2">
         <v>75</v>
@@ -4507,7 +4503,7 @@
         <v>74</v>
       </c>
       <c r="AK24" t="s" s="2">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="AL24" t="s" s="2">
         <v>74</v>
@@ -4521,7 +4517,7 @@
     </row>
     <row r="25" hidden="true">
       <c r="A25" t="s" s="2">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="B25" s="2"/>
       <c r="C25" t="s" s="2">
@@ -4535,7 +4531,7 @@
         <v>76</v>
       </c>
       <c r="G25" t="s" s="2">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="H25" t="s" s="2">
         <v>74</v>
@@ -4544,13 +4540,13 @@
         <v>74</v>
       </c>
       <c r="J25" t="s" s="2">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="K25" t="s" s="2">
+        <v>227</v>
+      </c>
+      <c r="L25" t="s" s="2">
         <v>228</v>
-      </c>
-      <c r="L25" t="s" s="2">
-        <v>229</v>
       </c>
       <c r="M25" s="2"/>
       <c r="N25" s="2"/>
@@ -4589,17 +4585,17 @@
         <v>74</v>
       </c>
       <c r="AA25" t="s" s="2">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="AB25" s="2"/>
       <c r="AC25" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AD25" t="s" s="2">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="AE25" t="s" s="2">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="AF25" t="s" s="2">
         <v>75</v>
@@ -4611,7 +4607,7 @@
         <v>74</v>
       </c>
       <c r="AI25" t="s" s="2">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="AJ25" t="s" s="2">
         <v>74</v>
@@ -4631,10 +4627,10 @@
     </row>
     <row r="26">
       <c r="A26" t="s" s="2">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="B26" t="s" s="2">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="C26" t="s" s="2">
         <v>74</v>
@@ -4644,11 +4640,11 @@
         <v>75</v>
       </c>
       <c r="F26" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="G26" t="s" s="2">
         <v>83</v>
       </c>
-      <c r="G26" t="s" s="2">
-        <v>84</v>
-      </c>
       <c r="H26" t="s" s="2">
         <v>74</v>
       </c>
@@ -4656,13 +4652,13 @@
         <v>74</v>
       </c>
       <c r="J26" t="s" s="2">
+        <v>231</v>
+      </c>
+      <c r="K26" t="s" s="2">
         <v>232</v>
       </c>
-      <c r="K26" t="s" s="2">
+      <c r="L26" t="s" s="2">
         <v>233</v>
-      </c>
-      <c r="L26" t="s" s="2">
-        <v>234</v>
       </c>
       <c r="M26" s="2"/>
       <c r="N26" s="2"/>
@@ -4713,7 +4709,7 @@
         <v>74</v>
       </c>
       <c r="AE26" t="s" s="2">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="AF26" t="s" s="2">
         <v>75</v>
@@ -4722,10 +4718,10 @@
         <v>76</v>
       </c>
       <c r="AH26" t="s" s="2">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="AI26" t="s" s="2">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="AJ26" t="s" s="2">
         <v>74</v>
@@ -4745,10 +4741,10 @@
     </row>
     <row r="27">
       <c r="A27" t="s" s="2">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="B27" t="s" s="2">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="C27" t="s" s="2">
         <v>74</v>
@@ -4761,7 +4757,7 @@
         <v>76</v>
       </c>
       <c r="G27" t="s" s="2">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="H27" t="s" s="2">
         <v>74</v>
@@ -4770,13 +4766,13 @@
         <v>74</v>
       </c>
       <c r="J27" t="s" s="2">
+        <v>236</v>
+      </c>
+      <c r="K27" t="s" s="2">
         <v>237</v>
       </c>
-      <c r="K27" t="s" s="2">
+      <c r="L27" t="s" s="2">
         <v>238</v>
-      </c>
-      <c r="L27" t="s" s="2">
-        <v>239</v>
       </c>
       <c r="M27" s="2"/>
       <c r="N27" s="2"/>
@@ -4827,7 +4823,7 @@
         <v>74</v>
       </c>
       <c r="AE27" t="s" s="2">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="AF27" t="s" s="2">
         <v>75</v>
@@ -4836,10 +4832,10 @@
         <v>76</v>
       </c>
       <c r="AH27" t="s" s="2">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="AI27" t="s" s="2">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="AJ27" t="s" s="2">
         <v>74</v>
@@ -4859,11 +4855,11 @@
     </row>
     <row r="28" hidden="true">
       <c r="A28" t="s" s="2">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="B28" s="2"/>
       <c r="C28" t="s" s="2">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="D28" s="2"/>
       <c r="E28" t="s" s="2">
@@ -4876,25 +4872,25 @@
         <v>74</v>
       </c>
       <c r="H28" t="s" s="2">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="I28" t="s" s="2">
         <v>74</v>
       </c>
       <c r="J28" t="s" s="2">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="K28" t="s" s="2">
+        <v>240</v>
+      </c>
+      <c r="L28" t="s" s="2">
         <v>241</v>
       </c>
-      <c r="L28" t="s" s="2">
+      <c r="M28" t="s" s="2">
+        <v>105</v>
+      </c>
+      <c r="N28" t="s" s="2">
         <v>242</v>
-      </c>
-      <c r="M28" t="s" s="2">
-        <v>106</v>
-      </c>
-      <c r="N28" t="s" s="2">
-        <v>243</v>
       </c>
       <c r="O28" t="s" s="2">
         <v>74</v>
@@ -4943,7 +4939,7 @@
         <v>74</v>
       </c>
       <c r="AE28" t="s" s="2">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="AF28" t="s" s="2">
         <v>75</v>
@@ -4955,13 +4951,13 @@
         <v>74</v>
       </c>
       <c r="AI28" t="s" s="2">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="AJ28" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AK28" t="s" s="2">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="AL28" t="s" s="2">
         <v>74</v>
@@ -4975,7 +4971,7 @@
     </row>
     <row r="29" hidden="true">
       <c r="A29" t="s" s="2">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="B29" s="2"/>
       <c r="C29" t="s" s="2">
@@ -4998,16 +4994,16 @@
         <v>74</v>
       </c>
       <c r="J29" t="s" s="2">
+        <v>245</v>
+      </c>
+      <c r="K29" t="s" s="2">
         <v>246</v>
       </c>
-      <c r="K29" t="s" s="2">
+      <c r="L29" t="s" s="2">
         <v>247</v>
       </c>
-      <c r="L29" t="s" s="2">
+      <c r="M29" t="s" s="2">
         <v>248</v>
-      </c>
-      <c r="M29" t="s" s="2">
-        <v>249</v>
       </c>
       <c r="N29" s="2"/>
       <c r="O29" t="s" s="2">
@@ -5057,7 +5053,7 @@
         <v>74</v>
       </c>
       <c r="AE29" t="s" s="2">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="AF29" t="s" s="2">
         <v>75</v>
@@ -5069,16 +5065,16 @@
         <v>74</v>
       </c>
       <c r="AI29" t="s" s="2">
-        <v>95</v>
+        <v>116</v>
       </c>
       <c r="AJ29" t="s" s="2">
+        <v>249</v>
+      </c>
+      <c r="AK29" t="s" s="2">
         <v>250</v>
       </c>
-      <c r="AK29" t="s" s="2">
+      <c r="AL29" t="s" s="2">
         <v>251</v>
-      </c>
-      <c r="AL29" t="s" s="2">
-        <v>252</v>
       </c>
       <c r="AM29" t="s" s="2">
         <v>74</v>
@@ -5089,7 +5085,7 @@
     </row>
     <row r="30" hidden="true">
       <c r="A30" t="s" s="2">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="B30" s="2"/>
       <c r="C30" t="s" s="2">
@@ -5109,16 +5105,16 @@
         <v>74</v>
       </c>
       <c r="I30" t="s" s="2">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="J30" t="s" s="2">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="K30" t="s" s="2">
+        <v>253</v>
+      </c>
+      <c r="L30" t="s" s="2">
         <v>254</v>
-      </c>
-      <c r="L30" t="s" s="2">
-        <v>255</v>
       </c>
       <c r="M30" s="2"/>
       <c r="N30" s="2"/>
@@ -5169,7 +5165,7 @@
         <v>74</v>
       </c>
       <c r="AE30" t="s" s="2">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="AF30" t="s" s="2">
         <v>75</v>
@@ -5181,13 +5177,13 @@
         <v>74</v>
       </c>
       <c r="AI30" t="s" s="2">
-        <v>95</v>
+        <v>116</v>
       </c>
       <c r="AJ30" t="s" s="2">
+        <v>255</v>
+      </c>
+      <c r="AK30" t="s" s="2">
         <v>256</v>
-      </c>
-      <c r="AK30" t="s" s="2">
-        <v>257</v>
       </c>
       <c r="AL30" t="s" s="2">
         <v>74</v>
@@ -5201,7 +5197,7 @@
     </row>
     <row r="31" hidden="true">
       <c r="A31" t="s" s="2">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="B31" s="2"/>
       <c r="C31" t="s" s="2">
@@ -5221,16 +5217,16 @@
         <v>74</v>
       </c>
       <c r="I31" t="s" s="2">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="J31" t="s" s="2">
+        <v>258</v>
+      </c>
+      <c r="K31" t="s" s="2">
         <v>259</v>
       </c>
-      <c r="K31" t="s" s="2">
+      <c r="L31" t="s" s="2">
         <v>260</v>
-      </c>
-      <c r="L31" t="s" s="2">
-        <v>261</v>
       </c>
       <c r="M31" s="2"/>
       <c r="N31" s="2"/>
@@ -5281,7 +5277,7 @@
         <v>74</v>
       </c>
       <c r="AE31" t="s" s="2">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="AF31" t="s" s="2">
         <v>75</v>
@@ -5293,13 +5289,13 @@
         <v>74</v>
       </c>
       <c r="AI31" t="s" s="2">
-        <v>95</v>
+        <v>116</v>
       </c>
       <c r="AJ31" t="s" s="2">
+        <v>261</v>
+      </c>
+      <c r="AK31" t="s" s="2">
         <v>262</v>
-      </c>
-      <c r="AK31" t="s" s="2">
-        <v>263</v>
       </c>
       <c r="AL31" t="s" s="2">
         <v>74</v>
@@ -5313,7 +5309,7 @@
     </row>
     <row r="32">
       <c r="A32" t="s" s="2">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="B32" s="2"/>
       <c r="C32" t="s" s="2">
@@ -5321,31 +5317,31 @@
       </c>
       <c r="D32" s="2"/>
       <c r="E32" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="F32" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="G32" t="s" s="2">
         <v>83</v>
       </c>
-      <c r="F32" t="s" s="2">
+      <c r="H32" t="s" s="2">
         <v>83</v>
       </c>
-      <c r="G32" t="s" s="2">
-        <v>84</v>
-      </c>
-      <c r="H32" t="s" s="2">
-        <v>84</v>
-      </c>
       <c r="I32" t="s" s="2">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="J32" t="s" s="2">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="K32" t="s" s="2">
+        <v>264</v>
+      </c>
+      <c r="L32" t="s" s="2">
         <v>265</v>
       </c>
-      <c r="L32" t="s" s="2">
+      <c r="M32" t="s" s="2">
         <v>266</v>
-      </c>
-      <c r="M32" t="s" s="2">
-        <v>267</v>
       </c>
       <c r="N32" s="2"/>
       <c r="O32" t="s" s="2">
@@ -5371,55 +5367,55 @@
         <v>74</v>
       </c>
       <c r="W32" t="s" s="2">
+        <v>267</v>
+      </c>
+      <c r="X32" t="s" s="2">
         <v>268</v>
       </c>
-      <c r="X32" t="s" s="2">
+      <c r="Y32" t="s" s="2">
         <v>269</v>
       </c>
-      <c r="Y32" t="s" s="2">
+      <c r="Z32" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AA32" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AB32" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AC32" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AD32" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AE32" t="s" s="2">
+        <v>263</v>
+      </c>
+      <c r="AF32" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AG32" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AH32" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AI32" t="s" s="2">
+        <v>116</v>
+      </c>
+      <c r="AJ32" t="s" s="2">
         <v>270</v>
       </c>
-      <c r="Z32" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AA32" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AB32" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AC32" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AD32" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AE32" t="s" s="2">
-        <v>264</v>
-      </c>
-      <c r="AF32" t="s" s="2">
-        <v>83</v>
-      </c>
-      <c r="AG32" t="s" s="2">
-        <v>83</v>
-      </c>
-      <c r="AH32" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AI32" t="s" s="2">
-        <v>95</v>
-      </c>
-      <c r="AJ32" t="s" s="2">
+      <c r="AK32" t="s" s="2">
         <v>271</v>
       </c>
-      <c r="AK32" t="s" s="2">
+      <c r="AL32" t="s" s="2">
         <v>272</v>
       </c>
-      <c r="AL32" t="s" s="2">
+      <c r="AM32" t="s" s="2">
         <v>273</v>
-      </c>
-      <c r="AM32" t="s" s="2">
-        <v>274</v>
       </c>
       <c r="AN32" t="s" s="2">
         <v>74</v>
@@ -5427,7 +5423,7 @@
     </row>
     <row r="33" hidden="true">
       <c r="A33" t="s" s="2">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="B33" s="2"/>
       <c r="C33" t="s" s="2">
@@ -5450,13 +5446,13 @@
         <v>74</v>
       </c>
       <c r="J33" t="s" s="2">
+        <v>275</v>
+      </c>
+      <c r="K33" t="s" s="2">
         <v>276</v>
       </c>
-      <c r="K33" t="s" s="2">
+      <c r="L33" t="s" s="2">
         <v>277</v>
-      </c>
-      <c r="L33" t="s" s="2">
-        <v>278</v>
       </c>
       <c r="M33" s="2"/>
       <c r="N33" s="2"/>
@@ -5483,14 +5479,14 @@
         <v>74</v>
       </c>
       <c r="W33" t="s" s="2">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="X33" t="s" s="2">
+        <v>278</v>
+      </c>
+      <c r="Y33" t="s" s="2">
         <v>279</v>
       </c>
-      <c r="Y33" t="s" s="2">
-        <v>280</v>
-      </c>
       <c r="Z33" t="s" s="2">
         <v>74</v>
       </c>
@@ -5507,7 +5503,7 @@
         <v>74</v>
       </c>
       <c r="AE33" t="s" s="2">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="AF33" t="s" s="2">
         <v>75</v>
@@ -5519,19 +5515,19 @@
         <v>74</v>
       </c>
       <c r="AI33" t="s" s="2">
-        <v>95</v>
+        <v>116</v>
       </c>
       <c r="AJ33" t="s" s="2">
+        <v>280</v>
+      </c>
+      <c r="AK33" t="s" s="2">
         <v>281</v>
       </c>
-      <c r="AK33" t="s" s="2">
+      <c r="AL33" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AM33" t="s" s="2">
         <v>282</v>
-      </c>
-      <c r="AL33" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AM33" t="s" s="2">
-        <v>283</v>
       </c>
       <c r="AN33" t="s" s="2">
         <v>74</v>
@@ -5539,7 +5535,7 @@
     </row>
     <row r="34" hidden="true">
       <c r="A34" t="s" s="2">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="B34" s="2"/>
       <c r="C34" t="s" s="2">
@@ -5550,7 +5546,7 @@
         <v>75</v>
       </c>
       <c r="F34" t="s" s="2">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="G34" t="s" s="2">
         <v>74</v>
@@ -5562,13 +5558,13 @@
         <v>74</v>
       </c>
       <c r="J34" t="s" s="2">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="K34" t="s" s="2">
+        <v>284</v>
+      </c>
+      <c r="L34" t="s" s="2">
         <v>285</v>
-      </c>
-      <c r="L34" t="s" s="2">
-        <v>286</v>
       </c>
       <c r="M34" s="2"/>
       <c r="N34" s="2"/>
@@ -5595,49 +5591,49 @@
         <v>74</v>
       </c>
       <c r="W34" t="s" s="2">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="X34" t="s" s="2">
+        <v>286</v>
+      </c>
+      <c r="Y34" t="s" s="2">
         <v>287</v>
       </c>
-      <c r="Y34" t="s" s="2">
+      <c r="Z34" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AA34" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AB34" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AC34" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AD34" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AE34" t="s" s="2">
+        <v>283</v>
+      </c>
+      <c r="AF34" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AG34" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AH34" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AI34" t="s" s="2">
+        <v>116</v>
+      </c>
+      <c r="AJ34" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AK34" t="s" s="2">
         <v>288</v>
-      </c>
-      <c r="Z34" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AA34" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AB34" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AC34" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AD34" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AE34" t="s" s="2">
-        <v>284</v>
-      </c>
-      <c r="AF34" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AG34" t="s" s="2">
-        <v>83</v>
-      </c>
-      <c r="AH34" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AI34" t="s" s="2">
-        <v>95</v>
-      </c>
-      <c r="AJ34" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AK34" t="s" s="2">
-        <v>289</v>
       </c>
       <c r="AL34" t="s" s="2">
         <v>74</v>
@@ -5651,7 +5647,7 @@
     </row>
     <row r="35">
       <c r="A35" t="s" s="2">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="B35" s="2"/>
       <c r="C35" t="s" s="2">
@@ -5659,31 +5655,31 @@
       </c>
       <c r="D35" s="2"/>
       <c r="E35" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="F35" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="G35" t="s" s="2">
         <v>83</v>
       </c>
-      <c r="F35" t="s" s="2">
+      <c r="H35" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="I35" t="s" s="2">
         <v>83</v>
       </c>
-      <c r="G35" t="s" s="2">
-        <v>84</v>
-      </c>
-      <c r="H35" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="I35" t="s" s="2">
-        <v>84</v>
-      </c>
       <c r="J35" t="s" s="2">
+        <v>290</v>
+      </c>
+      <c r="K35" t="s" s="2">
         <v>291</v>
       </c>
-      <c r="K35" t="s" s="2">
+      <c r="L35" t="s" s="2">
         <v>292</v>
       </c>
-      <c r="L35" t="s" s="2">
+      <c r="M35" t="s" s="2">
         <v>293</v>
-      </c>
-      <c r="M35" t="s" s="2">
-        <v>294</v>
       </c>
       <c r="N35" s="2"/>
       <c r="O35" t="s" s="2">
@@ -5709,53 +5705,53 @@
         <v>74</v>
       </c>
       <c r="W35" t="s" s="2">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="X35" s="2"/>
       <c r="Y35" t="s" s="2">
+        <v>294</v>
+      </c>
+      <c r="Z35" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AA35" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AB35" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AC35" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AD35" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AE35" t="s" s="2">
+        <v>289</v>
+      </c>
+      <c r="AF35" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AG35" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AH35" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AI35" t="s" s="2">
+        <v>116</v>
+      </c>
+      <c r="AJ35" t="s" s="2">
         <v>295</v>
       </c>
-      <c r="Z35" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AA35" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AB35" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AC35" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AD35" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AE35" t="s" s="2">
-        <v>290</v>
-      </c>
-      <c r="AF35" t="s" s="2">
-        <v>83</v>
-      </c>
-      <c r="AG35" t="s" s="2">
-        <v>83</v>
-      </c>
-      <c r="AH35" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AI35" t="s" s="2">
-        <v>95</v>
-      </c>
-      <c r="AJ35" t="s" s="2">
+      <c r="AK35" t="s" s="2">
         <v>296</v>
       </c>
-      <c r="AK35" t="s" s="2">
+      <c r="AL35" t="s" s="2">
         <v>297</v>
       </c>
-      <c r="AL35" t="s" s="2">
+      <c r="AM35" t="s" s="2">
         <v>298</v>
-      </c>
-      <c r="AM35" t="s" s="2">
-        <v>299</v>
       </c>
       <c r="AN35" t="s" s="2">
         <v>74</v>
@@ -5763,7 +5759,7 @@
     </row>
     <row r="36">
       <c r="A36" t="s" s="2">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="B36" s="2"/>
       <c r="C36" t="s" s="2">
@@ -5771,28 +5767,28 @@
       </c>
       <c r="D36" s="2"/>
       <c r="E36" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="F36" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="G36" t="s" s="2">
         <v>83</v>
       </c>
-      <c r="F36" t="s" s="2">
+      <c r="H36" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="I36" t="s" s="2">
         <v>83</v>
       </c>
-      <c r="G36" t="s" s="2">
-        <v>84</v>
-      </c>
-      <c r="H36" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="I36" t="s" s="2">
-        <v>84</v>
-      </c>
       <c r="J36" t="s" s="2">
+        <v>300</v>
+      </c>
+      <c r="K36" t="s" s="2">
         <v>301</v>
       </c>
-      <c r="K36" t="s" s="2">
+      <c r="L36" t="s" s="2">
         <v>302</v>
-      </c>
-      <c r="L36" t="s" s="2">
-        <v>303</v>
       </c>
       <c r="M36" s="2"/>
       <c r="N36" s="2"/>
@@ -5843,31 +5839,31 @@
         <v>74</v>
       </c>
       <c r="AE36" t="s" s="2">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="AF36" t="s" s="2">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="AG36" t="s" s="2">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="AH36" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AI36" t="s" s="2">
-        <v>95</v>
+        <v>116</v>
       </c>
       <c r="AJ36" t="s" s="2">
+        <v>303</v>
+      </c>
+      <c r="AK36" t="s" s="2">
         <v>304</v>
       </c>
-      <c r="AK36" t="s" s="2">
+      <c r="AL36" t="s" s="2">
         <v>305</v>
       </c>
-      <c r="AL36" t="s" s="2">
+      <c r="AM36" t="s" s="2">
         <v>306</v>
-      </c>
-      <c r="AM36" t="s" s="2">
-        <v>307</v>
       </c>
       <c r="AN36" t="s" s="2">
         <v>74</v>
@@ -5875,7 +5871,7 @@
     </row>
     <row r="37" hidden="true">
       <c r="A37" t="s" s="2">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="B37" s="2"/>
       <c r="C37" t="s" s="2">
@@ -5886,7 +5882,7 @@
         <v>75</v>
       </c>
       <c r="F37" t="s" s="2">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="G37" t="s" s="2">
         <v>74</v>
@@ -5898,13 +5894,13 @@
         <v>74</v>
       </c>
       <c r="J37" t="s" s="2">
+        <v>308</v>
+      </c>
+      <c r="K37" t="s" s="2">
         <v>309</v>
       </c>
-      <c r="K37" t="s" s="2">
+      <c r="L37" t="s" s="2">
         <v>310</v>
-      </c>
-      <c r="L37" t="s" s="2">
-        <v>311</v>
       </c>
       <c r="M37" s="2"/>
       <c r="N37" s="2"/>
@@ -5955,31 +5951,31 @@
         <v>74</v>
       </c>
       <c r="AE37" t="s" s="2">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="AF37" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AG37" t="s" s="2">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="AH37" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AI37" t="s" s="2">
-        <v>95</v>
+        <v>116</v>
       </c>
       <c r="AJ37" t="s" s="2">
+        <v>311</v>
+      </c>
+      <c r="AK37" t="s" s="2">
         <v>312</v>
       </c>
-      <c r="AK37" t="s" s="2">
+      <c r="AL37" t="s" s="2">
         <v>313</v>
       </c>
-      <c r="AL37" t="s" s="2">
+      <c r="AM37" t="s" s="2">
         <v>314</v>
-      </c>
-      <c r="AM37" t="s" s="2">
-        <v>315</v>
       </c>
       <c r="AN37" t="s" s="2">
         <v>74</v>
@@ -5987,7 +5983,7 @@
     </row>
     <row r="38" hidden="true">
       <c r="A38" t="s" s="2">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="B38" s="2"/>
       <c r="C38" t="s" s="2">
@@ -6010,13 +6006,13 @@
         <v>74</v>
       </c>
       <c r="J38" t="s" s="2">
+        <v>316</v>
+      </c>
+      <c r="K38" t="s" s="2">
         <v>317</v>
       </c>
-      <c r="K38" t="s" s="2">
+      <c r="L38" t="s" s="2">
         <v>318</v>
-      </c>
-      <c r="L38" t="s" s="2">
-        <v>319</v>
       </c>
       <c r="M38" s="2"/>
       <c r="N38" s="2"/>
@@ -6067,7 +6063,7 @@
         <v>74</v>
       </c>
       <c r="AE38" t="s" s="2">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="AF38" t="s" s="2">
         <v>75</v>
@@ -6079,16 +6075,16 @@
         <v>74</v>
       </c>
       <c r="AI38" t="s" s="2">
-        <v>95</v>
+        <v>116</v>
       </c>
       <c r="AJ38" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AK38" t="s" s="2">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="AL38" t="s" s="2">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="AM38" t="s" s="2">
         <v>74</v>
@@ -6099,7 +6095,7 @@
     </row>
     <row r="39">
       <c r="A39" t="s" s="2">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="B39" s="2"/>
       <c r="C39" t="s" s="2">
@@ -6107,28 +6103,28 @@
       </c>
       <c r="D39" s="2"/>
       <c r="E39" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="F39" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="G39" t="s" s="2">
         <v>83</v>
       </c>
-      <c r="F39" t="s" s="2">
+      <c r="H39" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="I39" t="s" s="2">
         <v>83</v>
       </c>
-      <c r="G39" t="s" s="2">
-        <v>84</v>
-      </c>
-      <c r="H39" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="I39" t="s" s="2">
-        <v>84</v>
-      </c>
       <c r="J39" t="s" s="2">
+        <v>321</v>
+      </c>
+      <c r="K39" t="s" s="2">
         <v>322</v>
       </c>
-      <c r="K39" t="s" s="2">
+      <c r="L39" t="s" s="2">
         <v>323</v>
-      </c>
-      <c r="L39" t="s" s="2">
-        <v>324</v>
       </c>
       <c r="M39" s="2"/>
       <c r="N39" s="2"/>
@@ -6179,31 +6175,31 @@
         <v>74</v>
       </c>
       <c r="AE39" t="s" s="2">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="AF39" t="s" s="2">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="AG39" t="s" s="2">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="AH39" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AI39" t="s" s="2">
-        <v>95</v>
+        <v>116</v>
       </c>
       <c r="AJ39" t="s" s="2">
+        <v>324</v>
+      </c>
+      <c r="AK39" t="s" s="2">
         <v>325</v>
       </c>
-      <c r="AK39" t="s" s="2">
+      <c r="AL39" t="s" s="2">
         <v>326</v>
       </c>
-      <c r="AL39" t="s" s="2">
+      <c r="AM39" t="s" s="2">
         <v>327</v>
-      </c>
-      <c r="AM39" t="s" s="2">
-        <v>328</v>
       </c>
       <c r="AN39" t="s" s="2">
         <v>74</v>
@@ -6211,7 +6207,7 @@
     </row>
     <row r="40" hidden="true">
       <c r="A40" t="s" s="2">
-        <v>329</v>
+        <v>328</v>
       </c>
       <c r="B40" s="2"/>
       <c r="C40" t="s" s="2">
@@ -6231,16 +6227,16 @@
         <v>74</v>
       </c>
       <c r="I40" t="s" s="2">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="J40" t="s" s="2">
+        <v>329</v>
+      </c>
+      <c r="K40" t="s" s="2">
         <v>330</v>
       </c>
-      <c r="K40" t="s" s="2">
+      <c r="L40" t="s" s="2">
         <v>331</v>
-      </c>
-      <c r="L40" t="s" s="2">
-        <v>332</v>
       </c>
       <c r="M40" s="2"/>
       <c r="N40" s="2"/>
@@ -6291,7 +6287,7 @@
         <v>74</v>
       </c>
       <c r="AE40" t="s" s="2">
-        <v>329</v>
+        <v>328</v>
       </c>
       <c r="AF40" t="s" s="2">
         <v>75</v>
@@ -6303,19 +6299,19 @@
         <v>74</v>
       </c>
       <c r="AI40" t="s" s="2">
-        <v>95</v>
+        <v>116</v>
       </c>
       <c r="AJ40" t="s" s="2">
+        <v>332</v>
+      </c>
+      <c r="AK40" t="s" s="2">
         <v>333</v>
       </c>
-      <c r="AK40" t="s" s="2">
+      <c r="AL40" t="s" s="2">
         <v>334</v>
       </c>
-      <c r="AL40" t="s" s="2">
+      <c r="AM40" t="s" s="2">
         <v>335</v>
-      </c>
-      <c r="AM40" t="s" s="2">
-        <v>336</v>
       </c>
       <c r="AN40" t="s" s="2">
         <v>74</v>
@@ -6323,7 +6319,7 @@
     </row>
     <row r="41" hidden="true">
       <c r="A41" t="s" s="2">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="B41" s="2"/>
       <c r="C41" t="s" s="2">
@@ -6334,7 +6330,7 @@
         <v>75</v>
       </c>
       <c r="F41" t="s" s="2">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="G41" t="s" s="2">
         <v>74</v>
@@ -6346,13 +6342,13 @@
         <v>74</v>
       </c>
       <c r="J41" t="s" s="2">
-        <v>85</v>
+        <v>95</v>
       </c>
       <c r="K41" t="s" s="2">
+        <v>96</v>
+      </c>
+      <c r="L41" t="s" s="2">
         <v>97</v>
-      </c>
-      <c r="L41" t="s" s="2">
-        <v>98</v>
       </c>
       <c r="M41" s="2"/>
       <c r="N41" s="2"/>
@@ -6403,25 +6399,25 @@
         <v>74</v>
       </c>
       <c r="AE41" t="s" s="2">
+        <v>98</v>
+      </c>
+      <c r="AF41" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AG41" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AH41" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AI41" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AJ41" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AK41" t="s" s="2">
         <v>99</v>
-      </c>
-      <c r="AF41" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AG41" t="s" s="2">
-        <v>83</v>
-      </c>
-      <c r="AH41" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AI41" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AJ41" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AK41" t="s" s="2">
-        <v>100</v>
       </c>
       <c r="AL41" t="s" s="2">
         <v>74</v>
@@ -6435,11 +6431,11 @@
     </row>
     <row r="42" hidden="true">
       <c r="A42" t="s" s="2">
-        <v>338</v>
+        <v>337</v>
       </c>
       <c r="B42" s="2"/>
       <c r="C42" t="s" s="2">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="D42" s="2"/>
       <c r="E42" t="s" s="2">
@@ -6458,16 +6454,16 @@
         <v>74</v>
       </c>
       <c r="J42" t="s" s="2">
+        <v>102</v>
+      </c>
+      <c r="K42" t="s" s="2">
         <v>103</v>
       </c>
-      <c r="K42" t="s" s="2">
+      <c r="L42" t="s" s="2">
         <v>104</v>
       </c>
-      <c r="L42" t="s" s="2">
+      <c r="M42" t="s" s="2">
         <v>105</v>
-      </c>
-      <c r="M42" t="s" s="2">
-        <v>106</v>
       </c>
       <c r="N42" s="2"/>
       <c r="O42" t="s" s="2">
@@ -6517,7 +6513,7 @@
         <v>74</v>
       </c>
       <c r="AE42" t="s" s="2">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="AF42" t="s" s="2">
         <v>75</v>
@@ -6529,13 +6525,13 @@
         <v>74</v>
       </c>
       <c r="AI42" t="s" s="2">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="AJ42" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AK42" t="s" s="2">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="AL42" t="s" s="2">
         <v>74</v>
@@ -6549,11 +6545,11 @@
     </row>
     <row r="43" hidden="true">
       <c r="A43" t="s" s="2">
-        <v>339</v>
+        <v>338</v>
       </c>
       <c r="B43" s="2"/>
       <c r="C43" t="s" s="2">
-        <v>340</v>
+        <v>339</v>
       </c>
       <c r="D43" s="2"/>
       <c r="E43" t="s" s="2">
@@ -6566,25 +6562,25 @@
         <v>74</v>
       </c>
       <c r="H43" t="s" s="2">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="I43" t="s" s="2">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="J43" t="s" s="2">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="K43" t="s" s="2">
+        <v>340</v>
+      </c>
+      <c r="L43" t="s" s="2">
         <v>341</v>
       </c>
-      <c r="L43" t="s" s="2">
-        <v>342</v>
-      </c>
       <c r="M43" t="s" s="2">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="N43" t="s" s="2">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="O43" t="s" s="2">
         <v>74</v>
@@ -6633,7 +6629,7 @@
         <v>74</v>
       </c>
       <c r="AE43" t="s" s="2">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="AF43" t="s" s="2">
         <v>75</v>
@@ -6645,13 +6641,13 @@
         <v>74</v>
       </c>
       <c r="AI43" t="s" s="2">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="AJ43" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AK43" t="s" s="2">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="AL43" t="s" s="2">
         <v>74</v>
@@ -6665,7 +6661,7 @@
     </row>
     <row r="44" hidden="true">
       <c r="A44" t="s" s="2">
-        <v>344</v>
+        <v>343</v>
       </c>
       <c r="B44" s="2"/>
       <c r="C44" t="s" s="2">
@@ -6676,7 +6672,7 @@
         <v>75</v>
       </c>
       <c r="F44" t="s" s="2">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="G44" t="s" s="2">
         <v>74</v>
@@ -6688,13 +6684,13 @@
         <v>74</v>
       </c>
       <c r="J44" t="s" s="2">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="K44" t="s" s="2">
+        <v>344</v>
+      </c>
+      <c r="L44" t="s" s="2">
         <v>345</v>
-      </c>
-      <c r="L44" t="s" s="2">
-        <v>346</v>
       </c>
       <c r="M44" s="2"/>
       <c r="N44" s="2"/>
@@ -6721,49 +6717,49 @@
         <v>74</v>
       </c>
       <c r="W44" t="s" s="2">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="X44" t="s" s="2">
+        <v>346</v>
+      </c>
+      <c r="Y44" t="s" s="2">
         <v>347</v>
       </c>
-      <c r="Y44" t="s" s="2">
+      <c r="Z44" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AA44" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AB44" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AC44" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AD44" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AE44" t="s" s="2">
+        <v>343</v>
+      </c>
+      <c r="AF44" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AG44" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AH44" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AI44" t="s" s="2">
+        <v>116</v>
+      </c>
+      <c r="AJ44" t="s" s="2">
         <v>348</v>
       </c>
-      <c r="Z44" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AA44" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AB44" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AC44" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AD44" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AE44" t="s" s="2">
-        <v>344</v>
-      </c>
-      <c r="AF44" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AG44" t="s" s="2">
-        <v>83</v>
-      </c>
-      <c r="AH44" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AI44" t="s" s="2">
-        <v>95</v>
-      </c>
-      <c r="AJ44" t="s" s="2">
+      <c r="AK44" t="s" s="2">
         <v>349</v>
-      </c>
-      <c r="AK44" t="s" s="2">
-        <v>350</v>
       </c>
       <c r="AL44" t="s" s="2">
         <v>74</v>
@@ -6777,7 +6773,7 @@
     </row>
     <row r="45" hidden="true">
       <c r="A45" t="s" s="2">
-        <v>351</v>
+        <v>350</v>
       </c>
       <c r="B45" s="2"/>
       <c r="C45" t="s" s="2">
@@ -6785,28 +6781,28 @@
       </c>
       <c r="D45" s="2"/>
       <c r="E45" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="F45" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="G45" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="H45" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="I45" t="s" s="2">
         <v>83</v>
       </c>
-      <c r="F45" t="s" s="2">
-        <v>83</v>
-      </c>
-      <c r="G45" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="H45" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="I45" t="s" s="2">
-        <v>84</v>
-      </c>
       <c r="J45" t="s" s="2">
+        <v>351</v>
+      </c>
+      <c r="K45" t="s" s="2">
         <v>352</v>
       </c>
-      <c r="K45" t="s" s="2">
+      <c r="L45" t="s" s="2">
         <v>353</v>
-      </c>
-      <c r="L45" t="s" s="2">
-        <v>354</v>
       </c>
       <c r="M45" s="2"/>
       <c r="N45" s="2"/>
@@ -6857,25 +6853,25 @@
         <v>74</v>
       </c>
       <c r="AE45" t="s" s="2">
-        <v>351</v>
+        <v>350</v>
       </c>
       <c r="AF45" t="s" s="2">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="AG45" t="s" s="2">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="AH45" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AI45" t="s" s="2">
-        <v>95</v>
+        <v>116</v>
       </c>
       <c r="AJ45" t="s" s="2">
+        <v>354</v>
+      </c>
+      <c r="AK45" t="s" s="2">
         <v>355</v>
-      </c>
-      <c r="AK45" t="s" s="2">
-        <v>356</v>
       </c>
       <c r="AL45" t="s" s="2">
         <v>74</v>
@@ -6889,7 +6885,7 @@
     </row>
     <row r="46">
       <c r="A46" t="s" s="2">
-        <v>357</v>
+        <v>356</v>
       </c>
       <c r="B46" s="2"/>
       <c r="C46" t="s" s="2">
@@ -6903,7 +6899,7 @@
         <v>76</v>
       </c>
       <c r="G46" t="s" s="2">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="H46" t="s" s="2">
         <v>74</v>
@@ -6912,13 +6908,13 @@
         <v>74</v>
       </c>
       <c r="J46" t="s" s="2">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="K46" t="s" s="2">
+        <v>357</v>
+      </c>
+      <c r="L46" t="s" s="2">
         <v>358</v>
-      </c>
-      <c r="L46" t="s" s="2">
-        <v>359</v>
       </c>
       <c r="M46" s="2"/>
       <c r="N46" s="2"/>
@@ -6945,11 +6941,11 @@
         <v>74</v>
       </c>
       <c r="W46" t="s" s="2">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="X46" s="2"/>
       <c r="Y46" t="s" s="2">
-        <v>360</v>
+        <v>359</v>
       </c>
       <c r="Z46" t="s" s="2">
         <v>74</v>
@@ -6967,7 +6963,7 @@
         <v>74</v>
       </c>
       <c r="AE46" t="s" s="2">
-        <v>357</v>
+        <v>356</v>
       </c>
       <c r="AF46" t="s" s="2">
         <v>75</v>
@@ -6979,19 +6975,19 @@
         <v>74</v>
       </c>
       <c r="AI46" t="s" s="2">
-        <v>95</v>
+        <v>116</v>
       </c>
       <c r="AJ46" t="s" s="2">
+        <v>360</v>
+      </c>
+      <c r="AK46" t="s" s="2">
         <v>361</v>
       </c>
-      <c r="AK46" t="s" s="2">
+      <c r="AL46" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AM46" t="s" s="2">
         <v>362</v>
-      </c>
-      <c r="AL46" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AM46" t="s" s="2">
-        <v>363</v>
       </c>
       <c r="AN46" t="s" s="2">
         <v>74</v>
@@ -6999,7 +6995,7 @@
     </row>
     <row r="47">
       <c r="A47" t="s" s="2">
-        <v>364</v>
+        <v>363</v>
       </c>
       <c r="B47" s="2"/>
       <c r="C47" t="s" s="2">
@@ -7013,7 +7009,7 @@
         <v>76</v>
       </c>
       <c r="G47" t="s" s="2">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="H47" t="s" s="2">
         <v>74</v>
@@ -7022,16 +7018,16 @@
         <v>74</v>
       </c>
       <c r="J47" t="s" s="2">
+        <v>364</v>
+      </c>
+      <c r="K47" t="s" s="2">
         <v>365</v>
       </c>
-      <c r="K47" t="s" s="2">
+      <c r="L47" t="s" s="2">
         <v>366</v>
       </c>
-      <c r="L47" t="s" s="2">
+      <c r="M47" t="s" s="2">
         <v>367</v>
-      </c>
-      <c r="M47" t="s" s="2">
-        <v>368</v>
       </c>
       <c r="N47" s="2"/>
       <c r="O47" t="s" s="2">
@@ -7081,7 +7077,7 @@
         <v>74</v>
       </c>
       <c r="AE47" t="s" s="2">
-        <v>364</v>
+        <v>363</v>
       </c>
       <c r="AF47" t="s" s="2">
         <v>75</v>
@@ -7093,27 +7089,27 @@
         <v>74</v>
       </c>
       <c r="AI47" t="s" s="2">
-        <v>95</v>
+        <v>116</v>
       </c>
       <c r="AJ47" t="s" s="2">
+        <v>368</v>
+      </c>
+      <c r="AK47" t="s" s="2">
         <v>369</v>
       </c>
-      <c r="AK47" t="s" s="2">
+      <c r="AL47" t="s" s="2">
         <v>370</v>
       </c>
-      <c r="AL47" t="s" s="2">
+      <c r="AM47" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AN47" t="s" s="2">
         <v>371</v>
-      </c>
-      <c r="AM47" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AN47" t="s" s="2">
-        <v>372</v>
       </c>
     </row>
     <row r="48" hidden="true">
       <c r="A48" t="s" s="2">
-        <v>373</v>
+        <v>372</v>
       </c>
       <c r="B48" s="2"/>
       <c r="C48" t="s" s="2">
@@ -7124,7 +7120,7 @@
         <v>75</v>
       </c>
       <c r="F48" t="s" s="2">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="G48" t="s" s="2">
         <v>74</v>
@@ -7136,16 +7132,16 @@
         <v>74</v>
       </c>
       <c r="J48" t="s" s="2">
+        <v>373</v>
+      </c>
+      <c r="K48" t="s" s="2">
         <v>374</v>
       </c>
-      <c r="K48" t="s" s="2">
+      <c r="L48" t="s" s="2">
         <v>375</v>
       </c>
-      <c r="L48" t="s" s="2">
+      <c r="M48" t="s" s="2">
         <v>376</v>
-      </c>
-      <c r="M48" t="s" s="2">
-        <v>377</v>
       </c>
       <c r="N48" s="2"/>
       <c r="O48" t="s" s="2">
@@ -7195,31 +7191,31 @@
         <v>74</v>
       </c>
       <c r="AE48" t="s" s="2">
-        <v>373</v>
+        <v>372</v>
       </c>
       <c r="AF48" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AG48" t="s" s="2">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="AH48" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AI48" t="s" s="2">
-        <v>95</v>
+        <v>116</v>
       </c>
       <c r="AJ48" t="s" s="2">
+        <v>377</v>
+      </c>
+      <c r="AK48" t="s" s="2">
         <v>378</v>
       </c>
-      <c r="AK48" t="s" s="2">
+      <c r="AL48" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AM48" t="s" s="2">
         <v>379</v>
-      </c>
-      <c r="AL48" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AM48" t="s" s="2">
-        <v>380</v>
       </c>
       <c r="AN48" t="s" s="2">
         <v>74</v>
@@ -7227,7 +7223,7 @@
     </row>
     <row r="49" hidden="true">
       <c r="A49" t="s" s="2">
-        <v>381</v>
+        <v>380</v>
       </c>
       <c r="B49" s="2"/>
       <c r="C49" t="s" s="2">
@@ -7250,13 +7246,13 @@
         <v>74</v>
       </c>
       <c r="J49" t="s" s="2">
+        <v>381</v>
+      </c>
+      <c r="K49" t="s" s="2">
         <v>382</v>
       </c>
-      <c r="K49" t="s" s="2">
+      <c r="L49" t="s" s="2">
         <v>383</v>
-      </c>
-      <c r="L49" t="s" s="2">
-        <v>384</v>
       </c>
       <c r="M49" s="2"/>
       <c r="N49" s="2"/>
@@ -7307,7 +7303,7 @@
         <v>74</v>
       </c>
       <c r="AE49" t="s" s="2">
-        <v>381</v>
+        <v>380</v>
       </c>
       <c r="AF49" t="s" s="2">
         <v>75</v>
@@ -7319,19 +7315,19 @@
         <v>74</v>
       </c>
       <c r="AI49" t="s" s="2">
-        <v>95</v>
+        <v>116</v>
       </c>
       <c r="AJ49" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AK49" t="s" s="2">
+        <v>384</v>
+      </c>
+      <c r="AL49" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AM49" t="s" s="2">
         <v>385</v>
-      </c>
-      <c r="AL49" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AM49" t="s" s="2">
-        <v>386</v>
       </c>
       <c r="AN49" t="s" s="2">
         <v>74</v>
@@ -7339,7 +7335,7 @@
     </row>
     <row r="50" hidden="true">
       <c r="A50" t="s" s="2">
-        <v>387</v>
+        <v>386</v>
       </c>
       <c r="B50" s="2"/>
       <c r="C50" t="s" s="2">
@@ -7362,13 +7358,13 @@
         <v>74</v>
       </c>
       <c r="J50" t="s" s="2">
+        <v>387</v>
+      </c>
+      <c r="K50" t="s" s="2">
         <v>388</v>
       </c>
-      <c r="K50" t="s" s="2">
+      <c r="L50" t="s" s="2">
         <v>389</v>
-      </c>
-      <c r="L50" t="s" s="2">
-        <v>390</v>
       </c>
       <c r="M50" s="2"/>
       <c r="N50" s="2"/>
@@ -7419,7 +7415,7 @@
         <v>74</v>
       </c>
       <c r="AE50" t="s" s="2">
-        <v>387</v>
+        <v>386</v>
       </c>
       <c r="AF50" t="s" s="2">
         <v>75</v>
@@ -7431,13 +7427,13 @@
         <v>74</v>
       </c>
       <c r="AI50" t="s" s="2">
-        <v>95</v>
+        <v>116</v>
       </c>
       <c r="AJ50" t="s" s="2">
+        <v>390</v>
+      </c>
+      <c r="AK50" t="s" s="2">
         <v>391</v>
-      </c>
-      <c r="AK50" t="s" s="2">
-        <v>392</v>
       </c>
       <c r="AL50" t="s" s="2">
         <v>74</v>
@@ -7451,7 +7447,7 @@
     </row>
     <row r="51" hidden="true">
       <c r="A51" t="s" s="2">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="B51" s="2"/>
       <c r="C51" t="s" s="2">
@@ -7462,7 +7458,7 @@
         <v>75</v>
       </c>
       <c r="F51" t="s" s="2">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="G51" t="s" s="2">
         <v>74</v>
@@ -7474,13 +7470,13 @@
         <v>74</v>
       </c>
       <c r="J51" t="s" s="2">
-        <v>330</v>
+        <v>329</v>
       </c>
       <c r="K51" t="s" s="2">
+        <v>393</v>
+      </c>
+      <c r="L51" t="s" s="2">
         <v>394</v>
-      </c>
-      <c r="L51" t="s" s="2">
-        <v>395</v>
       </c>
       <c r="M51" s="2"/>
       <c r="N51" s="2"/>
@@ -7531,25 +7527,25 @@
         <v>74</v>
       </c>
       <c r="AE51" t="s" s="2">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="AF51" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AG51" t="s" s="2">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="AH51" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AI51" t="s" s="2">
+        <v>395</v>
+      </c>
+      <c r="AJ51" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AK51" t="s" s="2">
         <v>396</v>
-      </c>
-      <c r="AJ51" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AK51" t="s" s="2">
-        <v>397</v>
       </c>
       <c r="AL51" t="s" s="2">
         <v>74</v>
@@ -7563,7 +7559,7 @@
     </row>
     <row r="52" hidden="true">
       <c r="A52" t="s" s="2">
-        <v>398</v>
+        <v>397</v>
       </c>
       <c r="B52" s="2"/>
       <c r="C52" t="s" s="2">
@@ -7574,7 +7570,7 @@
         <v>75</v>
       </c>
       <c r="F52" t="s" s="2">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="G52" t="s" s="2">
         <v>74</v>
@@ -7586,13 +7582,13 @@
         <v>74</v>
       </c>
       <c r="J52" t="s" s="2">
-        <v>85</v>
+        <v>95</v>
       </c>
       <c r="K52" t="s" s="2">
+        <v>96</v>
+      </c>
+      <c r="L52" t="s" s="2">
         <v>97</v>
-      </c>
-      <c r="L52" t="s" s="2">
-        <v>98</v>
       </c>
       <c r="M52" s="2"/>
       <c r="N52" s="2"/>
@@ -7643,25 +7639,25 @@
         <v>74</v>
       </c>
       <c r="AE52" t="s" s="2">
+        <v>98</v>
+      </c>
+      <c r="AF52" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AG52" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AH52" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AI52" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AJ52" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AK52" t="s" s="2">
         <v>99</v>
-      </c>
-      <c r="AF52" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AG52" t="s" s="2">
-        <v>83</v>
-      </c>
-      <c r="AH52" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AI52" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AJ52" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AK52" t="s" s="2">
-        <v>100</v>
       </c>
       <c r="AL52" t="s" s="2">
         <v>74</v>
@@ -7675,11 +7671,11 @@
     </row>
     <row r="53" hidden="true">
       <c r="A53" t="s" s="2">
-        <v>399</v>
+        <v>398</v>
       </c>
       <c r="B53" s="2"/>
       <c r="C53" t="s" s="2">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="D53" s="2"/>
       <c r="E53" t="s" s="2">
@@ -7698,16 +7694,16 @@
         <v>74</v>
       </c>
       <c r="J53" t="s" s="2">
+        <v>102</v>
+      </c>
+      <c r="K53" t="s" s="2">
         <v>103</v>
       </c>
-      <c r="K53" t="s" s="2">
+      <c r="L53" t="s" s="2">
         <v>104</v>
       </c>
-      <c r="L53" t="s" s="2">
+      <c r="M53" t="s" s="2">
         <v>105</v>
-      </c>
-      <c r="M53" t="s" s="2">
-        <v>106</v>
       </c>
       <c r="N53" s="2"/>
       <c r="O53" t="s" s="2">
@@ -7757,7 +7753,7 @@
         <v>74</v>
       </c>
       <c r="AE53" t="s" s="2">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="AF53" t="s" s="2">
         <v>75</v>
@@ -7769,13 +7765,13 @@
         <v>74</v>
       </c>
       <c r="AI53" t="s" s="2">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="AJ53" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AK53" t="s" s="2">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="AL53" t="s" s="2">
         <v>74</v>
@@ -7789,11 +7785,11 @@
     </row>
     <row r="54" hidden="true">
       <c r="A54" t="s" s="2">
-        <v>400</v>
+        <v>399</v>
       </c>
       <c r="B54" s="2"/>
       <c r="C54" t="s" s="2">
-        <v>340</v>
+        <v>339</v>
       </c>
       <c r="D54" s="2"/>
       <c r="E54" t="s" s="2">
@@ -7806,25 +7802,25 @@
         <v>74</v>
       </c>
       <c r="H54" t="s" s="2">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="I54" t="s" s="2">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="J54" t="s" s="2">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="K54" t="s" s="2">
+        <v>340</v>
+      </c>
+      <c r="L54" t="s" s="2">
         <v>341</v>
       </c>
-      <c r="L54" t="s" s="2">
-        <v>342</v>
-      </c>
       <c r="M54" t="s" s="2">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="N54" t="s" s="2">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="O54" t="s" s="2">
         <v>74</v>
@@ -7873,7 +7869,7 @@
         <v>74</v>
       </c>
       <c r="AE54" t="s" s="2">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="AF54" t="s" s="2">
         <v>75</v>
@@ -7885,13 +7881,13 @@
         <v>74</v>
       </c>
       <c r="AI54" t="s" s="2">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="AJ54" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AK54" t="s" s="2">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="AL54" t="s" s="2">
         <v>74</v>
@@ -7905,7 +7901,7 @@
     </row>
     <row r="55" hidden="true">
       <c r="A55" t="s" s="2">
-        <v>401</v>
+        <v>400</v>
       </c>
       <c r="B55" s="2"/>
       <c r="C55" t="s" s="2">
@@ -7916,7 +7912,7 @@
         <v>75</v>
       </c>
       <c r="F55" t="s" s="2">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="G55" t="s" s="2">
         <v>74</v>
@@ -7928,13 +7924,13 @@
         <v>74</v>
       </c>
       <c r="J55" t="s" s="2">
-        <v>85</v>
+        <v>95</v>
       </c>
       <c r="K55" t="s" s="2">
+        <v>401</v>
+      </c>
+      <c r="L55" t="s" s="2">
         <v>402</v>
-      </c>
-      <c r="L55" t="s" s="2">
-        <v>403</v>
       </c>
       <c r="M55" s="2"/>
       <c r="N55" s="2"/>
@@ -7985,25 +7981,25 @@
         <v>74</v>
       </c>
       <c r="AE55" t="s" s="2">
-        <v>401</v>
+        <v>400</v>
       </c>
       <c r="AF55" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AG55" t="s" s="2">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="AH55" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AI55" t="s" s="2">
-        <v>95</v>
+        <v>116</v>
       </c>
       <c r="AJ55" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AK55" t="s" s="2">
-        <v>404</v>
+        <v>403</v>
       </c>
       <c r="AL55" t="s" s="2">
         <v>74</v>
@@ -8017,7 +8013,7 @@
     </row>
     <row r="56" hidden="true">
       <c r="A56" t="s" s="2">
-        <v>405</v>
+        <v>404</v>
       </c>
       <c r="B56" s="2"/>
       <c r="C56" t="s" s="2">
@@ -8028,7 +8024,7 @@
         <v>75</v>
       </c>
       <c r="F56" t="s" s="2">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="G56" t="s" s="2">
         <v>74</v>
@@ -8040,16 +8036,16 @@
         <v>74</v>
       </c>
       <c r="J56" t="s" s="2">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="K56" t="s" s="2">
+        <v>405</v>
+      </c>
+      <c r="L56" t="s" s="2">
         <v>406</v>
       </c>
-      <c r="L56" t="s" s="2">
+      <c r="M56" t="s" s="2">
         <v>407</v>
-      </c>
-      <c r="M56" t="s" s="2">
-        <v>408</v>
       </c>
       <c r="N56" s="2"/>
       <c r="O56" t="s" s="2">
@@ -8075,55 +8071,55 @@
         <v>74</v>
       </c>
       <c r="W56" t="s" s="2">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="X56" t="s" s="2">
+        <v>408</v>
+      </c>
+      <c r="Y56" t="s" s="2">
         <v>409</v>
       </c>
-      <c r="Y56" t="s" s="2">
+      <c r="Z56" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AA56" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AB56" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AC56" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AD56" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AE56" t="s" s="2">
+        <v>404</v>
+      </c>
+      <c r="AF56" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AG56" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AH56" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AI56" t="s" s="2">
+        <v>116</v>
+      </c>
+      <c r="AJ56" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AK56" t="s" s="2">
         <v>410</v>
       </c>
-      <c r="Z56" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AA56" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AB56" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AC56" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AD56" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AE56" t="s" s="2">
-        <v>405</v>
-      </c>
-      <c r="AF56" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AG56" t="s" s="2">
-        <v>83</v>
-      </c>
-      <c r="AH56" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AI56" t="s" s="2">
-        <v>95</v>
-      </c>
-      <c r="AJ56" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AK56" t="s" s="2">
+      <c r="AL56" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AM56" t="s" s="2">
         <v>411</v>
-      </c>
-      <c r="AL56" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AM56" t="s" s="2">
-        <v>412</v>
       </c>
       <c r="AN56" t="s" s="2">
         <v>74</v>
@@ -8131,7 +8127,7 @@
     </row>
     <row r="57" hidden="true">
       <c r="A57" t="s" s="2">
-        <v>413</v>
+        <v>412</v>
       </c>
       <c r="B57" s="2"/>
       <c r="C57" t="s" s="2">
@@ -8142,7 +8138,7 @@
         <v>75</v>
       </c>
       <c r="F57" t="s" s="2">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="G57" t="s" s="2">
         <v>74</v>
@@ -8154,13 +8150,13 @@
         <v>74</v>
       </c>
       <c r="J57" t="s" s="2">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="K57" t="s" s="2">
+        <v>413</v>
+      </c>
+      <c r="L57" t="s" s="2">
         <v>414</v>
-      </c>
-      <c r="L57" t="s" s="2">
-        <v>415</v>
       </c>
       <c r="M57" s="2"/>
       <c r="N57" s="2"/>
@@ -8187,55 +8183,55 @@
         <v>74</v>
       </c>
       <c r="W57" t="s" s="2">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="X57" t="s" s="2">
+        <v>415</v>
+      </c>
+      <c r="Y57" t="s" s="2">
         <v>416</v>
       </c>
-      <c r="Y57" t="s" s="2">
+      <c r="Z57" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AA57" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AB57" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AC57" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AD57" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AE57" t="s" s="2">
+        <v>412</v>
+      </c>
+      <c r="AF57" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AG57" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AH57" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AI57" t="s" s="2">
+        <v>116</v>
+      </c>
+      <c r="AJ57" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AK57" t="s" s="2">
         <v>417</v>
       </c>
-      <c r="Z57" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AA57" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AB57" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AC57" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AD57" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AE57" t="s" s="2">
-        <v>413</v>
-      </c>
-      <c r="AF57" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AG57" t="s" s="2">
-        <v>83</v>
-      </c>
-      <c r="AH57" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AI57" t="s" s="2">
-        <v>95</v>
-      </c>
-      <c r="AJ57" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AK57" t="s" s="2">
+      <c r="AL57" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AM57" t="s" s="2">
         <v>418</v>
-      </c>
-      <c r="AL57" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AM57" t="s" s="2">
-        <v>419</v>
       </c>
       <c r="AN57" t="s" s="2">
         <v>74</v>
@@ -8243,7 +8239,7 @@
     </row>
     <row r="58" hidden="true">
       <c r="A58" t="s" s="2">
-        <v>420</v>
+        <v>419</v>
       </c>
       <c r="B58" s="2"/>
       <c r="C58" t="s" s="2">
@@ -8254,7 +8250,7 @@
         <v>75</v>
       </c>
       <c r="F58" t="s" s="2">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="G58" t="s" s="2">
         <v>74</v>
@@ -8266,16 +8262,16 @@
         <v>74</v>
       </c>
       <c r="J58" t="s" s="2">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="K58" t="s" s="2">
+        <v>420</v>
+      </c>
+      <c r="L58" t="s" s="2">
         <v>421</v>
       </c>
-      <c r="L58" t="s" s="2">
+      <c r="M58" t="s" s="2">
         <v>422</v>
-      </c>
-      <c r="M58" t="s" s="2">
-        <v>423</v>
       </c>
       <c r="N58" s="2"/>
       <c r="O58" t="s" s="2">
@@ -8301,55 +8297,55 @@
         <v>74</v>
       </c>
       <c r="W58" t="s" s="2">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="X58" t="s" s="2">
+        <v>423</v>
+      </c>
+      <c r="Y58" t="s" s="2">
         <v>424</v>
       </c>
-      <c r="Y58" t="s" s="2">
+      <c r="Z58" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AA58" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AB58" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AC58" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AD58" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AE58" t="s" s="2">
+        <v>419</v>
+      </c>
+      <c r="AF58" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AG58" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AH58" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AI58" t="s" s="2">
+        <v>116</v>
+      </c>
+      <c r="AJ58" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AK58" t="s" s="2">
         <v>425</v>
       </c>
-      <c r="Z58" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AA58" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AB58" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AC58" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AD58" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AE58" t="s" s="2">
-        <v>420</v>
-      </c>
-      <c r="AF58" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AG58" t="s" s="2">
-        <v>83</v>
-      </c>
-      <c r="AH58" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AI58" t="s" s="2">
-        <v>95</v>
-      </c>
-      <c r="AJ58" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AK58" t="s" s="2">
+      <c r="AL58" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AM58" t="s" s="2">
         <v>426</v>
-      </c>
-      <c r="AL58" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AM58" t="s" s="2">
-        <v>427</v>
       </c>
       <c r="AN58" t="s" s="2">
         <v>74</v>
@@ -8357,7 +8353,7 @@
     </row>
     <row r="59" hidden="true">
       <c r="A59" t="s" s="2">
-        <v>428</v>
+        <v>427</v>
       </c>
       <c r="B59" s="2"/>
       <c r="C59" t="s" s="2">
@@ -8368,7 +8364,7 @@
         <v>75</v>
       </c>
       <c r="F59" t="s" s="2">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="G59" t="s" s="2">
         <v>74</v>
@@ -8380,16 +8376,16 @@
         <v>74</v>
       </c>
       <c r="J59" t="s" s="2">
+        <v>428</v>
+      </c>
+      <c r="K59" t="s" s="2">
         <v>429</v>
       </c>
-      <c r="K59" t="s" s="2">
+      <c r="L59" t="s" s="2">
         <v>430</v>
       </c>
-      <c r="L59" t="s" s="2">
+      <c r="M59" t="s" s="2">
         <v>431</v>
-      </c>
-      <c r="M59" t="s" s="2">
-        <v>432</v>
       </c>
       <c r="N59" s="2"/>
       <c r="O59" t="s" s="2">
@@ -8439,31 +8435,31 @@
         <v>74</v>
       </c>
       <c r="AE59" t="s" s="2">
-        <v>428</v>
+        <v>427</v>
       </c>
       <c r="AF59" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AG59" t="s" s="2">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="AH59" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AI59" t="s" s="2">
-        <v>95</v>
+        <v>116</v>
       </c>
       <c r="AJ59" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AK59" t="s" s="2">
+        <v>432</v>
+      </c>
+      <c r="AL59" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AM59" t="s" s="2">
         <v>433</v>
-      </c>
-      <c r="AL59" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AM59" t="s" s="2">
-        <v>434</v>
       </c>
       <c r="AN59" t="s" s="2">
         <v>74</v>
@@ -8471,7 +8467,7 @@
     </row>
     <row r="60" hidden="true">
       <c r="A60" t="s" s="2">
-        <v>435</v>
+        <v>434</v>
       </c>
       <c r="B60" s="2"/>
       <c r="C60" t="s" s="2">
@@ -8482,7 +8478,7 @@
         <v>75</v>
       </c>
       <c r="F60" t="s" s="2">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="G60" t="s" s="2">
         <v>74</v>
@@ -8494,16 +8490,16 @@
         <v>74</v>
       </c>
       <c r="J60" t="s" s="2">
+        <v>435</v>
+      </c>
+      <c r="K60" t="s" s="2">
         <v>436</v>
       </c>
-      <c r="K60" t="s" s="2">
+      <c r="L60" t="s" s="2">
         <v>437</v>
       </c>
-      <c r="L60" t="s" s="2">
+      <c r="M60" t="s" s="2">
         <v>438</v>
-      </c>
-      <c r="M60" t="s" s="2">
-        <v>439</v>
       </c>
       <c r="N60" s="2"/>
       <c r="O60" t="s" s="2">
@@ -8553,31 +8549,31 @@
         <v>74</v>
       </c>
       <c r="AE60" t="s" s="2">
-        <v>435</v>
+        <v>434</v>
       </c>
       <c r="AF60" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AG60" t="s" s="2">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="AH60" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AI60" t="s" s="2">
-        <v>95</v>
+        <v>116</v>
       </c>
       <c r="AJ60" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AK60" t="s" s="2">
+        <v>439</v>
+      </c>
+      <c r="AL60" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AM60" t="s" s="2">
         <v>440</v>
-      </c>
-      <c r="AL60" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AM60" t="s" s="2">
-        <v>441</v>
       </c>
       <c r="AN60" t="s" s="2">
         <v>74</v>
@@ -8585,7 +8581,7 @@
     </row>
     <row r="61" hidden="true">
       <c r="A61" t="s" s="2">
-        <v>442</v>
+        <v>441</v>
       </c>
       <c r="B61" s="2"/>
       <c r="C61" t="s" s="2">
@@ -8608,16 +8604,16 @@
         <v>74</v>
       </c>
       <c r="J61" t="s" s="2">
+        <v>442</v>
+      </c>
+      <c r="K61" t="s" s="2">
         <v>443</v>
       </c>
-      <c r="K61" t="s" s="2">
+      <c r="L61" t="s" s="2">
         <v>444</v>
       </c>
-      <c r="L61" t="s" s="2">
+      <c r="M61" t="s" s="2">
         <v>445</v>
-      </c>
-      <c r="M61" t="s" s="2">
-        <v>446</v>
       </c>
       <c r="N61" s="2"/>
       <c r="O61" t="s" s="2">
@@ -8667,7 +8663,7 @@
         <v>74</v>
       </c>
       <c r="AE61" t="s" s="2">
-        <v>442</v>
+        <v>441</v>
       </c>
       <c r="AF61" t="s" s="2">
         <v>75</v>
@@ -8679,13 +8675,13 @@
         <v>74</v>
       </c>
       <c r="AI61" t="s" s="2">
-        <v>95</v>
+        <v>116</v>
       </c>
       <c r="AJ61" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AK61" t="s" s="2">
-        <v>447</v>
+        <v>446</v>
       </c>
       <c r="AL61" t="s" s="2">
         <v>74</v>

--- a/docs/StructureDefinition-cibmtr-medication-administration.xlsx
+++ b/docs/StructureDefinition-cibmtr-medication-administration.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-11-09T13:32:08-06:00</t>
+    <t>2022-11-09T14:05:34-06:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/docs/StructureDefinition-cibmtr-medication-administration.xlsx
+++ b/docs/StructureDefinition-cibmtr-medication-administration.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-11-09T14:05:34-06:00</t>
+    <t>2022-11-10T14:39:35-06:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -494,7 +494,7 @@
     <t>Need to be unambiguous about the source of the definition of the symbol.</t>
   </si>
   <si>
-    <t>http://terminology.nmdp.org/codesystem/transplant-center</t>
+    <t>http://terminology.cibmtr.org/codesystem/transplant-center</t>
   </si>
   <si>
     <t>Coding.system</t>

--- a/docs/StructureDefinition-cibmtr-medication-administration.xlsx
+++ b/docs/StructureDefinition-cibmtr-medication-administration.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-01-31T11:27:58-06:00</t>
+    <t>2023-02-01T09:05:11-06:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/docs/StructureDefinition-cibmtr-medication-administration.xlsx
+++ b/docs/StructureDefinition-cibmtr-medication-administration.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-02-01T09:05:11-06:00</t>
+    <t>2023-02-01T09:42:46-06:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/docs/StructureDefinition-cibmtr-medication-administration.xlsx
+++ b/docs/StructureDefinition-cibmtr-medication-administration.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-02-01T09:42:46-06:00</t>
+    <t>2023-02-02T10:26:54-06:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/docs/StructureDefinition-cibmtr-medication-administration.xlsx
+++ b/docs/StructureDefinition-cibmtr-medication-administration.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-02-02T10:26:54-06:00</t>
+    <t>2023-02-02T12:45:26-06:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/docs/StructureDefinition-cibmtr-medication-administration.xlsx
+++ b/docs/StructureDefinition-cibmtr-medication-administration.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-02-02T12:45:26-06:00</t>
+    <t>2023-02-02T13:14:50-06:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/docs/StructureDefinition-cibmtr-medication-administration.xlsx
+++ b/docs/StructureDefinition-cibmtr-medication-administration.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2277" uniqueCount="459">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2277" uniqueCount="460">
   <si>
     <t>Property</t>
   </si>
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-02-02T13:14:50-06:00</t>
+    <t>2023-03-28T10:36:55-05:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -569,6 +569,10 @@
   </si>
   <si>
     <t>Coding.code</t>
+  </si>
+  <si>
+    <t>ele-1:All FHIR elements must have a @value or children {hasValue() or (children().count() &gt; id.count())}
+sec-rc:Use transplant center identifier for security tag {matches('^rc_[0-9]{5}$')}</t>
   </si>
   <si>
     <t>./code</t>
@@ -3785,19 +3789,19 @@
         <v>75</v>
       </c>
       <c r="AJ17" t="s" s="2">
-        <v>118</v>
+        <v>179</v>
       </c>
       <c r="AK17" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AL17" t="s" s="2">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="AM17" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AN17" t="s" s="2">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="AO17" t="s" s="2">
         <v>75</v>
@@ -3805,10 +3809,10 @@
     </row>
     <row r="18" hidden="true">
       <c r="A18" t="s" s="2">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="B18" t="s" s="2">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="C18" s="2"/>
       <c r="D18" t="s" s="2">
@@ -3834,14 +3838,14 @@
         <v>97</v>
       </c>
       <c r="L18" t="s" s="2">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="M18" t="s" s="2">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="N18" s="2"/>
       <c r="O18" t="s" s="2">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="P18" t="s" s="2">
         <v>75</v>
@@ -3890,7 +3894,7 @@
         <v>75</v>
       </c>
       <c r="AF18" t="s" s="2">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="AG18" t="s" s="2">
         <v>76</v>
@@ -3908,13 +3912,13 @@
         <v>75</v>
       </c>
       <c r="AL18" t="s" s="2">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="AM18" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AN18" t="s" s="2">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="AO18" t="s" s="2">
         <v>75</v>
@@ -3922,10 +3926,10 @@
     </row>
     <row r="19" hidden="true">
       <c r="A19" t="s" s="2">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="B19" t="s" s="2">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="C19" s="2"/>
       <c r="D19" t="s" s="2">
@@ -3948,19 +3952,19 @@
         <v>85</v>
       </c>
       <c r="K19" t="s" s="2">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="L19" t="s" s="2">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="M19" t="s" s="2">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="N19" t="s" s="2">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="O19" t="s" s="2">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="P19" t="s" s="2">
         <v>75</v>
@@ -4009,7 +4013,7 @@
         <v>75</v>
       </c>
       <c r="AF19" t="s" s="2">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="AG19" t="s" s="2">
         <v>76</v>
@@ -4027,13 +4031,13 @@
         <v>75</v>
       </c>
       <c r="AL19" t="s" s="2">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="AM19" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AN19" t="s" s="2">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="AO19" t="s" s="2">
         <v>75</v>
@@ -4041,10 +4045,10 @@
     </row>
     <row r="20" hidden="true">
       <c r="A20" t="s" s="2">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="B20" t="s" s="2">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="C20" s="2"/>
       <c r="D20" t="s" s="2">
@@ -4070,13 +4074,13 @@
         <v>138</v>
       </c>
       <c r="L20" t="s" s="2">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="M20" t="s" s="2">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="N20" t="s" s="2">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="O20" s="2"/>
       <c r="P20" t="s" s="2">
@@ -4102,13 +4106,13 @@
         <v>75</v>
       </c>
       <c r="X20" t="s" s="2">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="Y20" t="s" s="2">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="Z20" t="s" s="2">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="AA20" t="s" s="2">
         <v>75</v>
@@ -4126,7 +4130,7 @@
         <v>75</v>
       </c>
       <c r="AF20" t="s" s="2">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="AG20" t="s" s="2">
         <v>76</v>
@@ -4158,10 +4162,10 @@
     </row>
     <row r="21" hidden="true">
       <c r="A21" t="s" s="2">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="B21" t="s" s="2">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="C21" s="2"/>
       <c r="D21" t="s" s="2">
@@ -4187,13 +4191,13 @@
         <v>126</v>
       </c>
       <c r="L21" t="s" s="2">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="M21" t="s" s="2">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="N21" t="s" s="2">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="O21" s="2"/>
       <c r="P21" t="s" s="2">
@@ -4243,7 +4247,7 @@
         <v>75</v>
       </c>
       <c r="AF21" t="s" s="2">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="AG21" t="s" s="2">
         <v>76</v>
@@ -4275,10 +4279,10 @@
     </row>
     <row r="22" hidden="true">
       <c r="A22" t="s" s="2">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="B22" t="s" s="2">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="C22" s="2"/>
       <c r="D22" t="s" s="2">
@@ -4304,13 +4308,13 @@
         <v>174</v>
       </c>
       <c r="L22" t="s" s="2">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="M22" t="s" s="2">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="N22" t="s" s="2">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="O22" s="2"/>
       <c r="P22" t="s" s="2">
@@ -4336,13 +4340,13 @@
         <v>75</v>
       </c>
       <c r="X22" t="s" s="2">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="Y22" t="s" s="2">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="Z22" t="s" s="2">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="AA22" t="s" s="2">
         <v>75</v>
@@ -4360,7 +4364,7 @@
         <v>75</v>
       </c>
       <c r="AF22" t="s" s="2">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="AG22" t="s" s="2">
         <v>76</v>
@@ -4392,14 +4396,14 @@
     </row>
     <row r="23" hidden="true">
       <c r="A23" t="s" s="2">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="B23" t="s" s="2">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="C23" s="2"/>
       <c r="D23" t="s" s="2">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="E23" s="2"/>
       <c r="F23" t="s" s="2">
@@ -4418,16 +4422,16 @@
         <v>75</v>
       </c>
       <c r="K23" t="s" s="2">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="L23" t="s" s="2">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="M23" t="s" s="2">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="N23" t="s" s="2">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="O23" s="2"/>
       <c r="P23" t="s" s="2">
@@ -4477,7 +4481,7 @@
         <v>75</v>
       </c>
       <c r="AF23" t="s" s="2">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="AG23" t="s" s="2">
         <v>76</v>
@@ -4495,7 +4499,7 @@
         <v>75</v>
       </c>
       <c r="AL23" t="s" s="2">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="AM23" t="s" s="2">
         <v>75</v>
@@ -4509,14 +4513,14 @@
     </row>
     <row r="24" hidden="true">
       <c r="A24" t="s" s="2">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="B24" t="s" s="2">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="C24" s="2"/>
       <c r="D24" t="s" s="2">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="E24" s="2"/>
       <c r="F24" t="s" s="2">
@@ -4535,16 +4539,16 @@
         <v>75</v>
       </c>
       <c r="K24" t="s" s="2">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="L24" t="s" s="2">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="M24" t="s" s="2">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="N24" t="s" s="2">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="O24" s="2"/>
       <c r="P24" t="s" s="2">
@@ -4594,7 +4598,7 @@
         <v>75</v>
       </c>
       <c r="AF24" t="s" s="2">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="AG24" t="s" s="2">
         <v>76</v>
@@ -4612,7 +4616,7 @@
         <v>75</v>
       </c>
       <c r="AL24" t="s" s="2">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="AM24" t="s" s="2">
         <v>75</v>
@@ -4626,10 +4630,10 @@
     </row>
     <row r="25" hidden="true">
       <c r="A25" t="s" s="2">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="B25" t="s" s="2">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="C25" s="2"/>
       <c r="D25" t="s" s="2">
@@ -4655,10 +4659,10 @@
         <v>104</v>
       </c>
       <c r="L25" t="s" s="2">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="M25" t="s" s="2">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="N25" s="2"/>
       <c r="O25" s="2"/>
@@ -4707,7 +4711,7 @@
         <v>110</v>
       </c>
       <c r="AF25" t="s" s="2">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="AG25" t="s" s="2">
         <v>76</v>
@@ -4739,13 +4743,13 @@
     </row>
     <row r="26" hidden="true">
       <c r="A26" t="s" s="2">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="B26" t="s" s="2">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="C26" t="s" s="2">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c r="D26" t="s" s="2">
         <v>75</v>
@@ -4767,13 +4771,13 @@
         <v>75</v>
       </c>
       <c r="K26" t="s" s="2">
-        <v>242</v>
+        <v>243</v>
       </c>
       <c r="L26" t="s" s="2">
-        <v>243</v>
+        <v>244</v>
       </c>
       <c r="M26" t="s" s="2">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="N26" s="2"/>
       <c r="O26" s="2"/>
@@ -4824,7 +4828,7 @@
         <v>75</v>
       </c>
       <c r="AF26" t="s" s="2">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="AG26" t="s" s="2">
         <v>76</v>
@@ -4833,7 +4837,7 @@
         <v>77</v>
       </c>
       <c r="AI26" t="s" s="2">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c r="AJ26" t="s" s="2">
         <v>112</v>
@@ -4856,13 +4860,13 @@
     </row>
     <row r="27" hidden="true">
       <c r="A27" t="s" s="2">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="B27" t="s" s="2">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="C27" t="s" s="2">
-        <v>247</v>
+        <v>248</v>
       </c>
       <c r="D27" t="s" s="2">
         <v>75</v>
@@ -4884,13 +4888,13 @@
         <v>75</v>
       </c>
       <c r="K27" t="s" s="2">
-        <v>248</v>
+        <v>249</v>
       </c>
       <c r="L27" t="s" s="2">
-        <v>249</v>
+        <v>250</v>
       </c>
       <c r="M27" t="s" s="2">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="N27" s="2"/>
       <c r="O27" s="2"/>
@@ -4941,7 +4945,7 @@
         <v>75</v>
       </c>
       <c r="AF27" t="s" s="2">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="AG27" t="s" s="2">
         <v>76</v>
@@ -4950,7 +4954,7 @@
         <v>77</v>
       </c>
       <c r="AI27" t="s" s="2">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c r="AJ27" t="s" s="2">
         <v>112</v>
@@ -4973,10 +4977,10 @@
     </row>
     <row r="28" hidden="true">
       <c r="A28" t="s" s="2">
-        <v>251</v>
+        <v>252</v>
       </c>
       <c r="B28" t="s" s="2">
-        <v>251</v>
+        <v>252</v>
       </c>
       <c r="C28" s="2"/>
       <c r="D28" t="s" s="2">
@@ -5002,16 +5006,16 @@
         <v>104</v>
       </c>
       <c r="L28" t="s" s="2">
-        <v>252</v>
+        <v>253</v>
       </c>
       <c r="M28" t="s" s="2">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="N28" t="s" s="2">
         <v>107</v>
       </c>
       <c r="O28" t="s" s="2">
-        <v>254</v>
+        <v>255</v>
       </c>
       <c r="P28" t="s" s="2">
         <v>75</v>
@@ -5060,7 +5064,7 @@
         <v>75</v>
       </c>
       <c r="AF28" t="s" s="2">
-        <v>255</v>
+        <v>256</v>
       </c>
       <c r="AG28" t="s" s="2">
         <v>76</v>
@@ -5078,7 +5082,7 @@
         <v>75</v>
       </c>
       <c r="AL28" t="s" s="2">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="AM28" t="s" s="2">
         <v>75</v>
@@ -5092,10 +5096,10 @@
     </row>
     <row r="29" hidden="true">
       <c r="A29" t="s" s="2">
-        <v>256</v>
+        <v>257</v>
       </c>
       <c r="B29" t="s" s="2">
-        <v>256</v>
+        <v>257</v>
       </c>
       <c r="C29" s="2"/>
       <c r="D29" t="s" s="2">
@@ -5118,16 +5122,16 @@
         <v>75</v>
       </c>
       <c r="K29" t="s" s="2">
-        <v>257</v>
+        <v>258</v>
       </c>
       <c r="L29" t="s" s="2">
-        <v>258</v>
+        <v>259</v>
       </c>
       <c r="M29" t="s" s="2">
-        <v>259</v>
+        <v>260</v>
       </c>
       <c r="N29" t="s" s="2">
-        <v>260</v>
+        <v>261</v>
       </c>
       <c r="O29" s="2"/>
       <c r="P29" t="s" s="2">
@@ -5177,7 +5181,7 @@
         <v>75</v>
       </c>
       <c r="AF29" t="s" s="2">
-        <v>256</v>
+        <v>257</v>
       </c>
       <c r="AG29" t="s" s="2">
         <v>76</v>
@@ -5192,13 +5196,13 @@
         <v>118</v>
       </c>
       <c r="AK29" t="s" s="2">
-        <v>261</v>
+        <v>262</v>
       </c>
       <c r="AL29" t="s" s="2">
-        <v>262</v>
+        <v>263</v>
       </c>
       <c r="AM29" t="s" s="2">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c r="AN29" t="s" s="2">
         <v>75</v>
@@ -5209,10 +5213,10 @@
     </row>
     <row r="30" hidden="true">
       <c r="A30" t="s" s="2">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="B30" t="s" s="2">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="C30" s="2"/>
       <c r="D30" t="s" s="2">
@@ -5238,10 +5242,10 @@
         <v>126</v>
       </c>
       <c r="L30" t="s" s="2">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="M30" t="s" s="2">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="N30" s="2"/>
       <c r="O30" s="2"/>
@@ -5292,7 +5296,7 @@
         <v>75</v>
       </c>
       <c r="AF30" t="s" s="2">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="AG30" t="s" s="2">
         <v>76</v>
@@ -5307,10 +5311,10 @@
         <v>118</v>
       </c>
       <c r="AK30" t="s" s="2">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="AL30" t="s" s="2">
-        <v>268</v>
+        <v>269</v>
       </c>
       <c r="AM30" t="s" s="2">
         <v>75</v>
@@ -5324,10 +5328,10 @@
     </row>
     <row r="31" hidden="true">
       <c r="A31" t="s" s="2">
-        <v>269</v>
+        <v>270</v>
       </c>
       <c r="B31" t="s" s="2">
-        <v>269</v>
+        <v>270</v>
       </c>
       <c r="C31" s="2"/>
       <c r="D31" t="s" s="2">
@@ -5350,13 +5354,13 @@
         <v>85</v>
       </c>
       <c r="K31" t="s" s="2">
-        <v>270</v>
+        <v>271</v>
       </c>
       <c r="L31" t="s" s="2">
-        <v>271</v>
+        <v>272</v>
       </c>
       <c r="M31" t="s" s="2">
-        <v>272</v>
+        <v>273</v>
       </c>
       <c r="N31" s="2"/>
       <c r="O31" s="2"/>
@@ -5407,7 +5411,7 @@
         <v>75</v>
       </c>
       <c r="AF31" t="s" s="2">
-        <v>269</v>
+        <v>270</v>
       </c>
       <c r="AG31" t="s" s="2">
         <v>76</v>
@@ -5422,10 +5426,10 @@
         <v>118</v>
       </c>
       <c r="AK31" t="s" s="2">
-        <v>273</v>
+        <v>274</v>
       </c>
       <c r="AL31" t="s" s="2">
-        <v>274</v>
+        <v>275</v>
       </c>
       <c r="AM31" t="s" s="2">
         <v>75</v>
@@ -5439,10 +5443,10 @@
     </row>
     <row r="32" hidden="true">
       <c r="A32" t="s" s="2">
-        <v>275</v>
+        <v>276</v>
       </c>
       <c r="B32" t="s" s="2">
-        <v>275</v>
+        <v>276</v>
       </c>
       <c r="C32" s="2"/>
       <c r="D32" t="s" s="2">
@@ -5468,13 +5472,13 @@
         <v>174</v>
       </c>
       <c r="L32" t="s" s="2">
-        <v>276</v>
+        <v>277</v>
       </c>
       <c r="M32" t="s" s="2">
-        <v>277</v>
+        <v>278</v>
       </c>
       <c r="N32" t="s" s="2">
-        <v>278</v>
+        <v>279</v>
       </c>
       <c r="O32" s="2"/>
       <c r="P32" t="s" s="2">
@@ -5500,13 +5504,13 @@
         <v>75</v>
       </c>
       <c r="X32" t="s" s="2">
-        <v>279</v>
+        <v>280</v>
       </c>
       <c r="Y32" t="s" s="2">
-        <v>280</v>
+        <v>281</v>
       </c>
       <c r="Z32" t="s" s="2">
-        <v>281</v>
+        <v>282</v>
       </c>
       <c r="AA32" t="s" s="2">
         <v>75</v>
@@ -5524,7 +5528,7 @@
         <v>75</v>
       </c>
       <c r="AF32" t="s" s="2">
-        <v>275</v>
+        <v>276</v>
       </c>
       <c r="AG32" t="s" s="2">
         <v>84</v>
@@ -5539,16 +5543,16 @@
         <v>118</v>
       </c>
       <c r="AK32" t="s" s="2">
-        <v>282</v>
+        <v>283</v>
       </c>
       <c r="AL32" t="s" s="2">
-        <v>283</v>
+        <v>284</v>
       </c>
       <c r="AM32" t="s" s="2">
-        <v>284</v>
+        <v>285</v>
       </c>
       <c r="AN32" t="s" s="2">
-        <v>285</v>
+        <v>286</v>
       </c>
       <c r="AO32" t="s" s="2">
         <v>75</v>
@@ -5556,10 +5560,10 @@
     </row>
     <row r="33" hidden="true">
       <c r="A33" t="s" s="2">
-        <v>286</v>
+        <v>287</v>
       </c>
       <c r="B33" t="s" s="2">
-        <v>286</v>
+        <v>287</v>
       </c>
       <c r="C33" s="2"/>
       <c r="D33" t="s" s="2">
@@ -5582,13 +5586,13 @@
         <v>75</v>
       </c>
       <c r="K33" t="s" s="2">
-        <v>287</v>
+        <v>288</v>
       </c>
       <c r="L33" t="s" s="2">
-        <v>288</v>
+        <v>289</v>
       </c>
       <c r="M33" t="s" s="2">
-        <v>289</v>
+        <v>290</v>
       </c>
       <c r="N33" s="2"/>
       <c r="O33" s="2"/>
@@ -5615,13 +5619,13 @@
         <v>75</v>
       </c>
       <c r="X33" t="s" s="2">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="Y33" t="s" s="2">
-        <v>290</v>
+        <v>291</v>
       </c>
       <c r="Z33" t="s" s="2">
-        <v>291</v>
+        <v>292</v>
       </c>
       <c r="AA33" t="s" s="2">
         <v>75</v>
@@ -5639,7 +5643,7 @@
         <v>75</v>
       </c>
       <c r="AF33" t="s" s="2">
-        <v>286</v>
+        <v>287</v>
       </c>
       <c r="AG33" t="s" s="2">
         <v>76</v>
@@ -5654,16 +5658,16 @@
         <v>118</v>
       </c>
       <c r="AK33" t="s" s="2">
-        <v>292</v>
+        <v>293</v>
       </c>
       <c r="AL33" t="s" s="2">
-        <v>293</v>
+        <v>294</v>
       </c>
       <c r="AM33" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AN33" t="s" s="2">
-        <v>294</v>
+        <v>295</v>
       </c>
       <c r="AO33" t="s" s="2">
         <v>75</v>
@@ -5671,10 +5675,10 @@
     </row>
     <row r="34" hidden="true">
       <c r="A34" t="s" s="2">
-        <v>295</v>
+        <v>296</v>
       </c>
       <c r="B34" t="s" s="2">
-        <v>295</v>
+        <v>296</v>
       </c>
       <c r="C34" s="2"/>
       <c r="D34" t="s" s="2">
@@ -5697,13 +5701,13 @@
         <v>75</v>
       </c>
       <c r="K34" t="s" s="2">
-        <v>287</v>
+        <v>288</v>
       </c>
       <c r="L34" t="s" s="2">
-        <v>296</v>
+        <v>297</v>
       </c>
       <c r="M34" t="s" s="2">
-        <v>297</v>
+        <v>298</v>
       </c>
       <c r="N34" s="2"/>
       <c r="O34" s="2"/>
@@ -5730,13 +5734,13 @@
         <v>75</v>
       </c>
       <c r="X34" t="s" s="2">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="Y34" t="s" s="2">
-        <v>298</v>
+        <v>299</v>
       </c>
       <c r="Z34" t="s" s="2">
-        <v>299</v>
+        <v>300</v>
       </c>
       <c r="AA34" t="s" s="2">
         <v>75</v>
@@ -5754,7 +5758,7 @@
         <v>75</v>
       </c>
       <c r="AF34" t="s" s="2">
-        <v>295</v>
+        <v>296</v>
       </c>
       <c r="AG34" t="s" s="2">
         <v>76</v>
@@ -5772,7 +5776,7 @@
         <v>75</v>
       </c>
       <c r="AL34" t="s" s="2">
-        <v>300</v>
+        <v>301</v>
       </c>
       <c r="AM34" t="s" s="2">
         <v>75</v>
@@ -5786,10 +5790,10 @@
     </row>
     <row r="35" hidden="true">
       <c r="A35" t="s" s="2">
-        <v>301</v>
+        <v>302</v>
       </c>
       <c r="B35" t="s" s="2">
-        <v>301</v>
+        <v>302</v>
       </c>
       <c r="C35" s="2"/>
       <c r="D35" t="s" s="2">
@@ -5812,16 +5816,16 @@
         <v>85</v>
       </c>
       <c r="K35" t="s" s="2">
-        <v>302</v>
+        <v>303</v>
       </c>
       <c r="L35" t="s" s="2">
-        <v>303</v>
+        <v>304</v>
       </c>
       <c r="M35" t="s" s="2">
-        <v>304</v>
+        <v>305</v>
       </c>
       <c r="N35" t="s" s="2">
-        <v>305</v>
+        <v>306</v>
       </c>
       <c r="O35" s="2"/>
       <c r="P35" t="s" s="2">
@@ -5851,7 +5855,7 @@
       </c>
       <c r="Y35" s="2"/>
       <c r="Z35" t="s" s="2">
-        <v>306</v>
+        <v>307</v>
       </c>
       <c r="AA35" t="s" s="2">
         <v>75</v>
@@ -5869,7 +5873,7 @@
         <v>75</v>
       </c>
       <c r="AF35" t="s" s="2">
-        <v>301</v>
+        <v>302</v>
       </c>
       <c r="AG35" t="s" s="2">
         <v>84</v>
@@ -5884,16 +5888,16 @@
         <v>118</v>
       </c>
       <c r="AK35" t="s" s="2">
-        <v>307</v>
+        <v>308</v>
       </c>
       <c r="AL35" t="s" s="2">
-        <v>308</v>
+        <v>309</v>
       </c>
       <c r="AM35" t="s" s="2">
-        <v>309</v>
+        <v>310</v>
       </c>
       <c r="AN35" t="s" s="2">
-        <v>310</v>
+        <v>311</v>
       </c>
       <c r="AO35" t="s" s="2">
         <v>75</v>
@@ -5901,10 +5905,10 @@
     </row>
     <row r="36" hidden="true">
       <c r="A36" t="s" s="2">
-        <v>311</v>
+        <v>312</v>
       </c>
       <c r="B36" t="s" s="2">
-        <v>311</v>
+        <v>312</v>
       </c>
       <c r="C36" s="2"/>
       <c r="D36" t="s" s="2">
@@ -5927,13 +5931,13 @@
         <v>85</v>
       </c>
       <c r="K36" t="s" s="2">
-        <v>312</v>
+        <v>313</v>
       </c>
       <c r="L36" t="s" s="2">
-        <v>313</v>
+        <v>314</v>
       </c>
       <c r="M36" t="s" s="2">
-        <v>314</v>
+        <v>315</v>
       </c>
       <c r="N36" s="2"/>
       <c r="O36" s="2"/>
@@ -5984,7 +5988,7 @@
         <v>75</v>
       </c>
       <c r="AF36" t="s" s="2">
-        <v>311</v>
+        <v>312</v>
       </c>
       <c r="AG36" t="s" s="2">
         <v>84</v>
@@ -5999,16 +6003,16 @@
         <v>118</v>
       </c>
       <c r="AK36" t="s" s="2">
-        <v>315</v>
+        <v>316</v>
       </c>
       <c r="AL36" t="s" s="2">
-        <v>316</v>
+        <v>317</v>
       </c>
       <c r="AM36" t="s" s="2">
-        <v>317</v>
+        <v>318</v>
       </c>
       <c r="AN36" t="s" s="2">
-        <v>318</v>
+        <v>319</v>
       </c>
       <c r="AO36" t="s" s="2">
         <v>75</v>
@@ -6016,10 +6020,10 @@
     </row>
     <row r="37" hidden="true">
       <c r="A37" t="s" s="2">
-        <v>319</v>
+        <v>320</v>
       </c>
       <c r="B37" t="s" s="2">
-        <v>319</v>
+        <v>320</v>
       </c>
       <c r="C37" s="2"/>
       <c r="D37" t="s" s="2">
@@ -6042,13 +6046,13 @@
         <v>75</v>
       </c>
       <c r="K37" t="s" s="2">
-        <v>320</v>
+        <v>321</v>
       </c>
       <c r="L37" t="s" s="2">
-        <v>321</v>
+        <v>322</v>
       </c>
       <c r="M37" t="s" s="2">
-        <v>322</v>
+        <v>323</v>
       </c>
       <c r="N37" s="2"/>
       <c r="O37" s="2"/>
@@ -6099,7 +6103,7 @@
         <v>75</v>
       </c>
       <c r="AF37" t="s" s="2">
-        <v>319</v>
+        <v>320</v>
       </c>
       <c r="AG37" t="s" s="2">
         <v>76</v>
@@ -6114,16 +6118,16 @@
         <v>118</v>
       </c>
       <c r="AK37" t="s" s="2">
-        <v>323</v>
+        <v>324</v>
       </c>
       <c r="AL37" t="s" s="2">
-        <v>324</v>
+        <v>325</v>
       </c>
       <c r="AM37" t="s" s="2">
-        <v>325</v>
+        <v>326</v>
       </c>
       <c r="AN37" t="s" s="2">
-        <v>326</v>
+        <v>327</v>
       </c>
       <c r="AO37" t="s" s="2">
         <v>75</v>
@@ -6131,10 +6135,10 @@
     </row>
     <row r="38" hidden="true">
       <c r="A38" t="s" s="2">
-        <v>327</v>
+        <v>328</v>
       </c>
       <c r="B38" t="s" s="2">
-        <v>327</v>
+        <v>328</v>
       </c>
       <c r="C38" s="2"/>
       <c r="D38" t="s" s="2">
@@ -6157,13 +6161,13 @@
         <v>75</v>
       </c>
       <c r="K38" t="s" s="2">
-        <v>328</v>
+        <v>329</v>
       </c>
       <c r="L38" t="s" s="2">
-        <v>329</v>
+        <v>330</v>
       </c>
       <c r="M38" t="s" s="2">
-        <v>330</v>
+        <v>331</v>
       </c>
       <c r="N38" s="2"/>
       <c r="O38" s="2"/>
@@ -6214,7 +6218,7 @@
         <v>75</v>
       </c>
       <c r="AF38" t="s" s="2">
-        <v>327</v>
+        <v>328</v>
       </c>
       <c r="AG38" t="s" s="2">
         <v>76</v>
@@ -6232,10 +6236,10 @@
         <v>75</v>
       </c>
       <c r="AL38" t="s" s="2">
-        <v>331</v>
+        <v>332</v>
       </c>
       <c r="AM38" t="s" s="2">
-        <v>325</v>
+        <v>326</v>
       </c>
       <c r="AN38" t="s" s="2">
         <v>75</v>
@@ -6246,10 +6250,10 @@
     </row>
     <row r="39" hidden="true">
       <c r="A39" t="s" s="2">
-        <v>332</v>
+        <v>333</v>
       </c>
       <c r="B39" t="s" s="2">
-        <v>332</v>
+        <v>333</v>
       </c>
       <c r="C39" s="2"/>
       <c r="D39" t="s" s="2">
@@ -6272,13 +6276,13 @@
         <v>85</v>
       </c>
       <c r="K39" t="s" s="2">
-        <v>333</v>
+        <v>334</v>
       </c>
       <c r="L39" t="s" s="2">
-        <v>334</v>
+        <v>335</v>
       </c>
       <c r="M39" t="s" s="2">
-        <v>335</v>
+        <v>336</v>
       </c>
       <c r="N39" s="2"/>
       <c r="O39" s="2"/>
@@ -6329,7 +6333,7 @@
         <v>75</v>
       </c>
       <c r="AF39" t="s" s="2">
-        <v>332</v>
+        <v>333</v>
       </c>
       <c r="AG39" t="s" s="2">
         <v>84</v>
@@ -6344,16 +6348,16 @@
         <v>118</v>
       </c>
       <c r="AK39" t="s" s="2">
-        <v>336</v>
+        <v>337</v>
       </c>
       <c r="AL39" t="s" s="2">
-        <v>337</v>
+        <v>338</v>
       </c>
       <c r="AM39" t="s" s="2">
-        <v>338</v>
+        <v>339</v>
       </c>
       <c r="AN39" t="s" s="2">
-        <v>339</v>
+        <v>340</v>
       </c>
       <c r="AO39" t="s" s="2">
         <v>75</v>
@@ -6361,10 +6365,10 @@
     </row>
     <row r="40" hidden="true">
       <c r="A40" t="s" s="2">
-        <v>340</v>
+        <v>341</v>
       </c>
       <c r="B40" t="s" s="2">
-        <v>340</v>
+        <v>341</v>
       </c>
       <c r="C40" s="2"/>
       <c r="D40" t="s" s="2">
@@ -6387,13 +6391,13 @@
         <v>85</v>
       </c>
       <c r="K40" t="s" s="2">
-        <v>341</v>
+        <v>342</v>
       </c>
       <c r="L40" t="s" s="2">
-        <v>342</v>
+        <v>343</v>
       </c>
       <c r="M40" t="s" s="2">
-        <v>343</v>
+        <v>344</v>
       </c>
       <c r="N40" s="2"/>
       <c r="O40" s="2"/>
@@ -6444,7 +6448,7 @@
         <v>75</v>
       </c>
       <c r="AF40" t="s" s="2">
-        <v>340</v>
+        <v>341</v>
       </c>
       <c r="AG40" t="s" s="2">
         <v>76</v>
@@ -6459,16 +6463,16 @@
         <v>118</v>
       </c>
       <c r="AK40" t="s" s="2">
-        <v>344</v>
+        <v>345</v>
       </c>
       <c r="AL40" t="s" s="2">
-        <v>345</v>
+        <v>346</v>
       </c>
       <c r="AM40" t="s" s="2">
-        <v>346</v>
+        <v>347</v>
       </c>
       <c r="AN40" t="s" s="2">
-        <v>347</v>
+        <v>348</v>
       </c>
       <c r="AO40" t="s" s="2">
         <v>75</v>
@@ -6476,10 +6480,10 @@
     </row>
     <row r="41" hidden="true">
       <c r="A41" t="s" s="2">
-        <v>348</v>
+        <v>349</v>
       </c>
       <c r="B41" t="s" s="2">
-        <v>348</v>
+        <v>349</v>
       </c>
       <c r="C41" s="2"/>
       <c r="D41" t="s" s="2">
@@ -6591,10 +6595,10 @@
     </row>
     <row r="42" hidden="true">
       <c r="A42" t="s" s="2">
-        <v>349</v>
+        <v>350</v>
       </c>
       <c r="B42" t="s" s="2">
-        <v>349</v>
+        <v>350</v>
       </c>
       <c r="C42" s="2"/>
       <c r="D42" t="s" s="2">
@@ -6708,14 +6712,14 @@
     </row>
     <row r="43" hidden="true">
       <c r="A43" t="s" s="2">
-        <v>350</v>
+        <v>351</v>
       </c>
       <c r="B43" t="s" s="2">
-        <v>350</v>
+        <v>351</v>
       </c>
       <c r="C43" s="2"/>
       <c r="D43" t="s" s="2">
-        <v>351</v>
+        <v>352</v>
       </c>
       <c r="E43" s="2"/>
       <c r="F43" t="s" s="2">
@@ -6737,16 +6741,16 @@
         <v>104</v>
       </c>
       <c r="L43" t="s" s="2">
-        <v>352</v>
+        <v>353</v>
       </c>
       <c r="M43" t="s" s="2">
-        <v>353</v>
+        <v>354</v>
       </c>
       <c r="N43" t="s" s="2">
         <v>107</v>
       </c>
       <c r="O43" t="s" s="2">
-        <v>254</v>
+        <v>255</v>
       </c>
       <c r="P43" t="s" s="2">
         <v>75</v>
@@ -6795,7 +6799,7 @@
         <v>75</v>
       </c>
       <c r="AF43" t="s" s="2">
-        <v>354</v>
+        <v>355</v>
       </c>
       <c r="AG43" t="s" s="2">
         <v>76</v>
@@ -6813,7 +6817,7 @@
         <v>75</v>
       </c>
       <c r="AL43" t="s" s="2">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="AM43" t="s" s="2">
         <v>75</v>
@@ -6827,10 +6831,10 @@
     </row>
     <row r="44" hidden="true">
       <c r="A44" t="s" s="2">
-        <v>355</v>
+        <v>356</v>
       </c>
       <c r="B44" t="s" s="2">
-        <v>355</v>
+        <v>356</v>
       </c>
       <c r="C44" s="2"/>
       <c r="D44" t="s" s="2">
@@ -6853,13 +6857,13 @@
         <v>75</v>
       </c>
       <c r="K44" t="s" s="2">
-        <v>287</v>
+        <v>288</v>
       </c>
       <c r="L44" t="s" s="2">
-        <v>356</v>
+        <v>357</v>
       </c>
       <c r="M44" t="s" s="2">
-        <v>357</v>
+        <v>358</v>
       </c>
       <c r="N44" s="2"/>
       <c r="O44" s="2"/>
@@ -6886,13 +6890,13 @@
         <v>75</v>
       </c>
       <c r="X44" t="s" s="2">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="Y44" t="s" s="2">
-        <v>358</v>
+        <v>359</v>
       </c>
       <c r="Z44" t="s" s="2">
-        <v>359</v>
+        <v>360</v>
       </c>
       <c r="AA44" t="s" s="2">
         <v>75</v>
@@ -6910,7 +6914,7 @@
         <v>75</v>
       </c>
       <c r="AF44" t="s" s="2">
-        <v>355</v>
+        <v>356</v>
       </c>
       <c r="AG44" t="s" s="2">
         <v>76</v>
@@ -6925,10 +6929,10 @@
         <v>118</v>
       </c>
       <c r="AK44" t="s" s="2">
-        <v>360</v>
+        <v>361</v>
       </c>
       <c r="AL44" t="s" s="2">
-        <v>361</v>
+        <v>362</v>
       </c>
       <c r="AM44" t="s" s="2">
         <v>75</v>
@@ -6942,10 +6946,10 @@
     </row>
     <row r="45" hidden="true">
       <c r="A45" t="s" s="2">
-        <v>362</v>
+        <v>363</v>
       </c>
       <c r="B45" t="s" s="2">
-        <v>362</v>
+        <v>363</v>
       </c>
       <c r="C45" s="2"/>
       <c r="D45" t="s" s="2">
@@ -6968,13 +6972,13 @@
         <v>85</v>
       </c>
       <c r="K45" t="s" s="2">
-        <v>363</v>
+        <v>364</v>
       </c>
       <c r="L45" t="s" s="2">
-        <v>364</v>
+        <v>365</v>
       </c>
       <c r="M45" t="s" s="2">
-        <v>365</v>
+        <v>366</v>
       </c>
       <c r="N45" s="2"/>
       <c r="O45" s="2"/>
@@ -7025,7 +7029,7 @@
         <v>75</v>
       </c>
       <c r="AF45" t="s" s="2">
-        <v>362</v>
+        <v>363</v>
       </c>
       <c r="AG45" t="s" s="2">
         <v>84</v>
@@ -7040,10 +7044,10 @@
         <v>118</v>
       </c>
       <c r="AK45" t="s" s="2">
-        <v>366</v>
+        <v>367</v>
       </c>
       <c r="AL45" t="s" s="2">
-        <v>367</v>
+        <v>368</v>
       </c>
       <c r="AM45" t="s" s="2">
         <v>75</v>
@@ -7057,10 +7061,10 @@
     </row>
     <row r="46" hidden="true">
       <c r="A46" t="s" s="2">
-        <v>368</v>
+        <v>369</v>
       </c>
       <c r="B46" t="s" s="2">
-        <v>368</v>
+        <v>369</v>
       </c>
       <c r="C46" s="2"/>
       <c r="D46" t="s" s="2">
@@ -7083,13 +7087,13 @@
         <v>75</v>
       </c>
       <c r="K46" t="s" s="2">
-        <v>287</v>
+        <v>288</v>
       </c>
       <c r="L46" t="s" s="2">
-        <v>369</v>
+        <v>370</v>
       </c>
       <c r="M46" t="s" s="2">
-        <v>370</v>
+        <v>371</v>
       </c>
       <c r="N46" s="2"/>
       <c r="O46" s="2"/>
@@ -7120,7 +7124,7 @@
       </c>
       <c r="Y46" s="2"/>
       <c r="Z46" t="s" s="2">
-        <v>371</v>
+        <v>372</v>
       </c>
       <c r="AA46" t="s" s="2">
         <v>75</v>
@@ -7138,7 +7142,7 @@
         <v>75</v>
       </c>
       <c r="AF46" t="s" s="2">
-        <v>368</v>
+        <v>369</v>
       </c>
       <c r="AG46" t="s" s="2">
         <v>76</v>
@@ -7153,16 +7157,16 @@
         <v>118</v>
       </c>
       <c r="AK46" t="s" s="2">
-        <v>372</v>
+        <v>373</v>
       </c>
       <c r="AL46" t="s" s="2">
-        <v>373</v>
+        <v>374</v>
       </c>
       <c r="AM46" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AN46" t="s" s="2">
-        <v>374</v>
+        <v>375</v>
       </c>
       <c r="AO46" t="s" s="2">
         <v>75</v>
@@ -7170,10 +7174,10 @@
     </row>
     <row r="47" hidden="true">
       <c r="A47" t="s" s="2">
-        <v>375</v>
+        <v>376</v>
       </c>
       <c r="B47" t="s" s="2">
-        <v>375</v>
+        <v>376</v>
       </c>
       <c r="C47" s="2"/>
       <c r="D47" t="s" s="2">
@@ -7196,16 +7200,16 @@
         <v>75</v>
       </c>
       <c r="K47" t="s" s="2">
-        <v>376</v>
+        <v>377</v>
       </c>
       <c r="L47" t="s" s="2">
-        <v>377</v>
+        <v>378</v>
       </c>
       <c r="M47" t="s" s="2">
-        <v>378</v>
+        <v>379</v>
       </c>
       <c r="N47" t="s" s="2">
-        <v>379</v>
+        <v>380</v>
       </c>
       <c r="O47" s="2"/>
       <c r="P47" t="s" s="2">
@@ -7255,7 +7259,7 @@
         <v>75</v>
       </c>
       <c r="AF47" t="s" s="2">
-        <v>375</v>
+        <v>376</v>
       </c>
       <c r="AG47" t="s" s="2">
         <v>76</v>
@@ -7270,27 +7274,27 @@
         <v>118</v>
       </c>
       <c r="AK47" t="s" s="2">
-        <v>380</v>
+        <v>381</v>
       </c>
       <c r="AL47" t="s" s="2">
-        <v>381</v>
+        <v>382</v>
       </c>
       <c r="AM47" t="s" s="2">
-        <v>382</v>
+        <v>383</v>
       </c>
       <c r="AN47" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AO47" t="s" s="2">
-        <v>383</v>
+        <v>384</v>
       </c>
     </row>
     <row r="48" hidden="true">
       <c r="A48" t="s" s="2">
-        <v>384</v>
+        <v>385</v>
       </c>
       <c r="B48" t="s" s="2">
-        <v>384</v>
+        <v>385</v>
       </c>
       <c r="C48" s="2"/>
       <c r="D48" t="s" s="2">
@@ -7313,16 +7317,16 @@
         <v>75</v>
       </c>
       <c r="K48" t="s" s="2">
-        <v>385</v>
+        <v>386</v>
       </c>
       <c r="L48" t="s" s="2">
-        <v>386</v>
+        <v>387</v>
       </c>
       <c r="M48" t="s" s="2">
-        <v>387</v>
+        <v>388</v>
       </c>
       <c r="N48" t="s" s="2">
-        <v>388</v>
+        <v>389</v>
       </c>
       <c r="O48" s="2"/>
       <c r="P48" t="s" s="2">
@@ -7372,7 +7376,7 @@
         <v>75</v>
       </c>
       <c r="AF48" t="s" s="2">
-        <v>384</v>
+        <v>385</v>
       </c>
       <c r="AG48" t="s" s="2">
         <v>76</v>
@@ -7387,16 +7391,16 @@
         <v>118</v>
       </c>
       <c r="AK48" t="s" s="2">
-        <v>389</v>
+        <v>390</v>
       </c>
       <c r="AL48" t="s" s="2">
-        <v>390</v>
+        <v>391</v>
       </c>
       <c r="AM48" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AN48" t="s" s="2">
-        <v>391</v>
+        <v>392</v>
       </c>
       <c r="AO48" t="s" s="2">
         <v>75</v>
@@ -7404,10 +7408,10 @@
     </row>
     <row r="49" hidden="true">
       <c r="A49" t="s" s="2">
-        <v>392</v>
+        <v>393</v>
       </c>
       <c r="B49" t="s" s="2">
-        <v>392</v>
+        <v>393</v>
       </c>
       <c r="C49" s="2"/>
       <c r="D49" t="s" s="2">
@@ -7430,13 +7434,13 @@
         <v>75</v>
       </c>
       <c r="K49" t="s" s="2">
-        <v>393</v>
+        <v>394</v>
       </c>
       <c r="L49" t="s" s="2">
-        <v>394</v>
+        <v>395</v>
       </c>
       <c r="M49" t="s" s="2">
-        <v>395</v>
+        <v>396</v>
       </c>
       <c r="N49" s="2"/>
       <c r="O49" s="2"/>
@@ -7487,7 +7491,7 @@
         <v>75</v>
       </c>
       <c r="AF49" t="s" s="2">
-        <v>392</v>
+        <v>393</v>
       </c>
       <c r="AG49" t="s" s="2">
         <v>76</v>
@@ -7505,13 +7509,13 @@
         <v>75</v>
       </c>
       <c r="AL49" t="s" s="2">
-        <v>396</v>
+        <v>397</v>
       </c>
       <c r="AM49" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AN49" t="s" s="2">
-        <v>397</v>
+        <v>398</v>
       </c>
       <c r="AO49" t="s" s="2">
         <v>75</v>
@@ -7519,10 +7523,10 @@
     </row>
     <row r="50" hidden="true">
       <c r="A50" t="s" s="2">
-        <v>398</v>
+        <v>399</v>
       </c>
       <c r="B50" t="s" s="2">
-        <v>398</v>
+        <v>399</v>
       </c>
       <c r="C50" s="2"/>
       <c r="D50" t="s" s="2">
@@ -7545,13 +7549,13 @@
         <v>75</v>
       </c>
       <c r="K50" t="s" s="2">
-        <v>399</v>
+        <v>400</v>
       </c>
       <c r="L50" t="s" s="2">
-        <v>400</v>
+        <v>401</v>
       </c>
       <c r="M50" t="s" s="2">
-        <v>401</v>
+        <v>402</v>
       </c>
       <c r="N50" s="2"/>
       <c r="O50" s="2"/>
@@ -7602,7 +7606,7 @@
         <v>75</v>
       </c>
       <c r="AF50" t="s" s="2">
-        <v>398</v>
+        <v>399</v>
       </c>
       <c r="AG50" t="s" s="2">
         <v>76</v>
@@ -7617,10 +7621,10 @@
         <v>118</v>
       </c>
       <c r="AK50" t="s" s="2">
-        <v>402</v>
+        <v>403</v>
       </c>
       <c r="AL50" t="s" s="2">
-        <v>403</v>
+        <v>404</v>
       </c>
       <c r="AM50" t="s" s="2">
         <v>75</v>
@@ -7634,10 +7638,10 @@
     </row>
     <row r="51" hidden="true">
       <c r="A51" t="s" s="2">
-        <v>404</v>
+        <v>405</v>
       </c>
       <c r="B51" t="s" s="2">
-        <v>404</v>
+        <v>405</v>
       </c>
       <c r="C51" s="2"/>
       <c r="D51" t="s" s="2">
@@ -7660,13 +7664,13 @@
         <v>75</v>
       </c>
       <c r="K51" t="s" s="2">
-        <v>341</v>
+        <v>342</v>
       </c>
       <c r="L51" t="s" s="2">
-        <v>405</v>
+        <v>406</v>
       </c>
       <c r="M51" t="s" s="2">
-        <v>406</v>
+        <v>407</v>
       </c>
       <c r="N51" s="2"/>
       <c r="O51" s="2"/>
@@ -7717,7 +7721,7 @@
         <v>75</v>
       </c>
       <c r="AF51" t="s" s="2">
-        <v>404</v>
+        <v>405</v>
       </c>
       <c r="AG51" t="s" s="2">
         <v>76</v>
@@ -7729,13 +7733,13 @@
         <v>75</v>
       </c>
       <c r="AJ51" t="s" s="2">
-        <v>407</v>
+        <v>408</v>
       </c>
       <c r="AK51" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AL51" t="s" s="2">
-        <v>408</v>
+        <v>409</v>
       </c>
       <c r="AM51" t="s" s="2">
         <v>75</v>
@@ -7749,10 +7753,10 @@
     </row>
     <row r="52" hidden="true">
       <c r="A52" t="s" s="2">
-        <v>409</v>
+        <v>410</v>
       </c>
       <c r="B52" t="s" s="2">
-        <v>409</v>
+        <v>410</v>
       </c>
       <c r="C52" s="2"/>
       <c r="D52" t="s" s="2">
@@ -7864,10 +7868,10 @@
     </row>
     <row r="53" hidden="true">
       <c r="A53" t="s" s="2">
-        <v>410</v>
+        <v>411</v>
       </c>
       <c r="B53" t="s" s="2">
-        <v>410</v>
+        <v>411</v>
       </c>
       <c r="C53" s="2"/>
       <c r="D53" t="s" s="2">
@@ -7981,14 +7985,14 @@
     </row>
     <row r="54" hidden="true">
       <c r="A54" t="s" s="2">
-        <v>411</v>
+        <v>412</v>
       </c>
       <c r="B54" t="s" s="2">
-        <v>411</v>
+        <v>412</v>
       </c>
       <c r="C54" s="2"/>
       <c r="D54" t="s" s="2">
-        <v>351</v>
+        <v>352</v>
       </c>
       <c r="E54" s="2"/>
       <c r="F54" t="s" s="2">
@@ -8010,16 +8014,16 @@
         <v>104</v>
       </c>
       <c r="L54" t="s" s="2">
-        <v>352</v>
+        <v>353</v>
       </c>
       <c r="M54" t="s" s="2">
-        <v>353</v>
+        <v>354</v>
       </c>
       <c r="N54" t="s" s="2">
         <v>107</v>
       </c>
       <c r="O54" t="s" s="2">
-        <v>254</v>
+        <v>255</v>
       </c>
       <c r="P54" t="s" s="2">
         <v>75</v>
@@ -8068,7 +8072,7 @@
         <v>75</v>
       </c>
       <c r="AF54" t="s" s="2">
-        <v>354</v>
+        <v>355</v>
       </c>
       <c r="AG54" t="s" s="2">
         <v>76</v>
@@ -8086,7 +8090,7 @@
         <v>75</v>
       </c>
       <c r="AL54" t="s" s="2">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="AM54" t="s" s="2">
         <v>75</v>
@@ -8100,10 +8104,10 @@
     </row>
     <row r="55" hidden="true">
       <c r="A55" t="s" s="2">
-        <v>412</v>
+        <v>413</v>
       </c>
       <c r="B55" t="s" s="2">
-        <v>412</v>
+        <v>413</v>
       </c>
       <c r="C55" s="2"/>
       <c r="D55" t="s" s="2">
@@ -8129,10 +8133,10 @@
         <v>97</v>
       </c>
       <c r="L55" t="s" s="2">
-        <v>413</v>
+        <v>414</v>
       </c>
       <c r="M55" t="s" s="2">
-        <v>414</v>
+        <v>415</v>
       </c>
       <c r="N55" s="2"/>
       <c r="O55" s="2"/>
@@ -8183,7 +8187,7 @@
         <v>75</v>
       </c>
       <c r="AF55" t="s" s="2">
-        <v>412</v>
+        <v>413</v>
       </c>
       <c r="AG55" t="s" s="2">
         <v>76</v>
@@ -8201,7 +8205,7 @@
         <v>75</v>
       </c>
       <c r="AL55" t="s" s="2">
-        <v>415</v>
+        <v>416</v>
       </c>
       <c r="AM55" t="s" s="2">
         <v>75</v>
@@ -8215,10 +8219,10 @@
     </row>
     <row r="56" hidden="true">
       <c r="A56" t="s" s="2">
-        <v>416</v>
+        <v>417</v>
       </c>
       <c r="B56" t="s" s="2">
-        <v>416</v>
+        <v>417</v>
       </c>
       <c r="C56" s="2"/>
       <c r="D56" t="s" s="2">
@@ -8241,16 +8245,16 @@
         <v>75</v>
       </c>
       <c r="K56" t="s" s="2">
-        <v>287</v>
+        <v>288</v>
       </c>
       <c r="L56" t="s" s="2">
-        <v>417</v>
+        <v>418</v>
       </c>
       <c r="M56" t="s" s="2">
-        <v>418</v>
+        <v>419</v>
       </c>
       <c r="N56" t="s" s="2">
-        <v>419</v>
+        <v>420</v>
       </c>
       <c r="O56" s="2"/>
       <c r="P56" t="s" s="2">
@@ -8276,13 +8280,13 @@
         <v>75</v>
       </c>
       <c r="X56" t="s" s="2">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="Y56" t="s" s="2">
-        <v>420</v>
+        <v>421</v>
       </c>
       <c r="Z56" t="s" s="2">
-        <v>421</v>
+        <v>422</v>
       </c>
       <c r="AA56" t="s" s="2">
         <v>75</v>
@@ -8300,7 +8304,7 @@
         <v>75</v>
       </c>
       <c r="AF56" t="s" s="2">
-        <v>416</v>
+        <v>417</v>
       </c>
       <c r="AG56" t="s" s="2">
         <v>76</v>
@@ -8318,13 +8322,13 @@
         <v>75</v>
       </c>
       <c r="AL56" t="s" s="2">
-        <v>422</v>
+        <v>423</v>
       </c>
       <c r="AM56" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AN56" t="s" s="2">
-        <v>423</v>
+        <v>424</v>
       </c>
       <c r="AO56" t="s" s="2">
         <v>75</v>
@@ -8332,10 +8336,10 @@
     </row>
     <row r="57" hidden="true">
       <c r="A57" t="s" s="2">
-        <v>424</v>
+        <v>425</v>
       </c>
       <c r="B57" t="s" s="2">
-        <v>424</v>
+        <v>425</v>
       </c>
       <c r="C57" s="2"/>
       <c r="D57" t="s" s="2">
@@ -8358,13 +8362,13 @@
         <v>75</v>
       </c>
       <c r="K57" t="s" s="2">
-        <v>287</v>
+        <v>288</v>
       </c>
       <c r="L57" t="s" s="2">
-        <v>425</v>
+        <v>426</v>
       </c>
       <c r="M57" t="s" s="2">
-        <v>426</v>
+        <v>427</v>
       </c>
       <c r="N57" s="2"/>
       <c r="O57" s="2"/>
@@ -8391,13 +8395,13 @@
         <v>75</v>
       </c>
       <c r="X57" t="s" s="2">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="Y57" t="s" s="2">
-        <v>427</v>
+        <v>428</v>
       </c>
       <c r="Z57" t="s" s="2">
-        <v>428</v>
+        <v>429</v>
       </c>
       <c r="AA57" t="s" s="2">
         <v>75</v>
@@ -8415,7 +8419,7 @@
         <v>75</v>
       </c>
       <c r="AF57" t="s" s="2">
-        <v>424</v>
+        <v>425</v>
       </c>
       <c r="AG57" t="s" s="2">
         <v>76</v>
@@ -8433,13 +8437,13 @@
         <v>75</v>
       </c>
       <c r="AL57" t="s" s="2">
-        <v>429</v>
+        <v>430</v>
       </c>
       <c r="AM57" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AN57" t="s" s="2">
-        <v>430</v>
+        <v>431</v>
       </c>
       <c r="AO57" t="s" s="2">
         <v>75</v>
@@ -8447,10 +8451,10 @@
     </row>
     <row r="58" hidden="true">
       <c r="A58" t="s" s="2">
-        <v>431</v>
+        <v>432</v>
       </c>
       <c r="B58" t="s" s="2">
-        <v>431</v>
+        <v>432</v>
       </c>
       <c r="C58" s="2"/>
       <c r="D58" t="s" s="2">
@@ -8473,16 +8477,16 @@
         <v>75</v>
       </c>
       <c r="K58" t="s" s="2">
-        <v>287</v>
+        <v>288</v>
       </c>
       <c r="L58" t="s" s="2">
-        <v>432</v>
+        <v>433</v>
       </c>
       <c r="M58" t="s" s="2">
-        <v>433</v>
+        <v>434</v>
       </c>
       <c r="N58" t="s" s="2">
-        <v>434</v>
+        <v>435</v>
       </c>
       <c r="O58" s="2"/>
       <c r="P58" t="s" s="2">
@@ -8508,13 +8512,13 @@
         <v>75</v>
       </c>
       <c r="X58" t="s" s="2">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="Y58" t="s" s="2">
-        <v>435</v>
+        <v>436</v>
       </c>
       <c r="Z58" t="s" s="2">
-        <v>436</v>
+        <v>437</v>
       </c>
       <c r="AA58" t="s" s="2">
         <v>75</v>
@@ -8532,7 +8536,7 @@
         <v>75</v>
       </c>
       <c r="AF58" t="s" s="2">
-        <v>431</v>
+        <v>432</v>
       </c>
       <c r="AG58" t="s" s="2">
         <v>76</v>
@@ -8550,13 +8554,13 @@
         <v>75</v>
       </c>
       <c r="AL58" t="s" s="2">
-        <v>437</v>
+        <v>438</v>
       </c>
       <c r="AM58" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AN58" t="s" s="2">
-        <v>438</v>
+        <v>439</v>
       </c>
       <c r="AO58" t="s" s="2">
         <v>75</v>
@@ -8564,10 +8568,10 @@
     </row>
     <row r="59" hidden="true">
       <c r="A59" t="s" s="2">
-        <v>439</v>
+        <v>440</v>
       </c>
       <c r="B59" t="s" s="2">
-        <v>439</v>
+        <v>440</v>
       </c>
       <c r="C59" s="2"/>
       <c r="D59" t="s" s="2">
@@ -8590,16 +8594,16 @@
         <v>75</v>
       </c>
       <c r="K59" t="s" s="2">
-        <v>440</v>
+        <v>441</v>
       </c>
       <c r="L59" t="s" s="2">
-        <v>441</v>
+        <v>442</v>
       </c>
       <c r="M59" t="s" s="2">
-        <v>442</v>
+        <v>443</v>
       </c>
       <c r="N59" t="s" s="2">
-        <v>443</v>
+        <v>444</v>
       </c>
       <c r="O59" s="2"/>
       <c r="P59" t="s" s="2">
@@ -8649,7 +8653,7 @@
         <v>75</v>
       </c>
       <c r="AF59" t="s" s="2">
-        <v>439</v>
+        <v>440</v>
       </c>
       <c r="AG59" t="s" s="2">
         <v>76</v>
@@ -8667,13 +8671,13 @@
         <v>75</v>
       </c>
       <c r="AL59" t="s" s="2">
-        <v>444</v>
+        <v>445</v>
       </c>
       <c r="AM59" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AN59" t="s" s="2">
-        <v>445</v>
+        <v>446</v>
       </c>
       <c r="AO59" t="s" s="2">
         <v>75</v>
@@ -8681,10 +8685,10 @@
     </row>
     <row r="60" hidden="true">
       <c r="A60" t="s" s="2">
-        <v>446</v>
+        <v>447</v>
       </c>
       <c r="B60" t="s" s="2">
-        <v>446</v>
+        <v>447</v>
       </c>
       <c r="C60" s="2"/>
       <c r="D60" t="s" s="2">
@@ -8707,16 +8711,16 @@
         <v>75</v>
       </c>
       <c r="K60" t="s" s="2">
-        <v>447</v>
+        <v>448</v>
       </c>
       <c r="L60" t="s" s="2">
-        <v>448</v>
+        <v>449</v>
       </c>
       <c r="M60" t="s" s="2">
-        <v>449</v>
+        <v>450</v>
       </c>
       <c r="N60" t="s" s="2">
-        <v>450</v>
+        <v>451</v>
       </c>
       <c r="O60" s="2"/>
       <c r="P60" t="s" s="2">
@@ -8766,7 +8770,7 @@
         <v>75</v>
       </c>
       <c r="AF60" t="s" s="2">
-        <v>446</v>
+        <v>447</v>
       </c>
       <c r="AG60" t="s" s="2">
         <v>76</v>
@@ -8784,13 +8788,13 @@
         <v>75</v>
       </c>
       <c r="AL60" t="s" s="2">
-        <v>451</v>
+        <v>452</v>
       </c>
       <c r="AM60" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AN60" t="s" s="2">
-        <v>452</v>
+        <v>453</v>
       </c>
       <c r="AO60" t="s" s="2">
         <v>75</v>
@@ -8798,10 +8802,10 @@
     </row>
     <row r="61" hidden="true">
       <c r="A61" t="s" s="2">
-        <v>453</v>
+        <v>454</v>
       </c>
       <c r="B61" t="s" s="2">
-        <v>453</v>
+        <v>454</v>
       </c>
       <c r="C61" s="2"/>
       <c r="D61" t="s" s="2">
@@ -8824,16 +8828,16 @@
         <v>75</v>
       </c>
       <c r="K61" t="s" s="2">
-        <v>454</v>
+        <v>455</v>
       </c>
       <c r="L61" t="s" s="2">
-        <v>455</v>
+        <v>456</v>
       </c>
       <c r="M61" t="s" s="2">
-        <v>456</v>
+        <v>457</v>
       </c>
       <c r="N61" t="s" s="2">
-        <v>457</v>
+        <v>458</v>
       </c>
       <c r="O61" s="2"/>
       <c r="P61" t="s" s="2">
@@ -8883,7 +8887,7 @@
         <v>75</v>
       </c>
       <c r="AF61" t="s" s="2">
-        <v>453</v>
+        <v>454</v>
       </c>
       <c r="AG61" t="s" s="2">
         <v>76</v>
@@ -8901,7 +8905,7 @@
         <v>75</v>
       </c>
       <c r="AL61" t="s" s="2">
-        <v>458</v>
+        <v>459</v>
       </c>
       <c r="AM61" t="s" s="2">
         <v>75</v>

--- a/docs/StructureDefinition-cibmtr-medication-administration.xlsx
+++ b/docs/StructureDefinition-cibmtr-medication-administration.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-05-04T09:48:28-05:00</t>
+    <t>2023-05-04T21:27:58-05:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -1772,17 +1772,17 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.0"/>
   <cols>
-    <col min="1" max="1" width="65.52734375" customWidth="true" bestFit="true"/>
-    <col min="2" max="2" width="51.203125" customWidth="true" bestFit="true"/>
-    <col min="3" max="3" width="18.1875" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="4" max="4" width="38.81640625" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="5" max="5" width="5.8984375" customWidth="true" bestFit="true"/>
-    <col min="6" max="6" width="4.69921875" customWidth="true" bestFit="true"/>
-    <col min="7" max="7" width="5.07421875" customWidth="true" bestFit="true"/>
-    <col min="8" max="8" width="14.625" customWidth="true" bestFit="true"/>
-    <col min="9" max="9" width="11.98828125" customWidth="true" bestFit="true"/>
+    <col min="1" max="1" width="64.26171875" customWidth="true" bestFit="true"/>
+    <col min="2" max="2" width="50.2578125" customWidth="true" bestFit="true"/>
+    <col min="3" max="3" width="17.765625" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="4" max="4" width="38.4609375" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="5" max="5" width="6.1484375" customWidth="true" bestFit="true"/>
+    <col min="6" max="6" width="4.58203125" customWidth="true" bestFit="true"/>
+    <col min="7" max="7" width="4.94140625" customWidth="true" bestFit="true"/>
+    <col min="8" max="8" width="14.7109375" customWidth="true" bestFit="true"/>
+    <col min="9" max="9" width="12.1875" customWidth="true" bestFit="true"/>
     <col min="10" max="10" width="20.703125" customWidth="true" bestFit="true"/>
-    <col min="11" max="11" width="163.74609375" customWidth="true" bestFit="true"/>
+    <col min="11" max="11" width="164.8828125" customWidth="true" bestFit="true"/>
     <col min="12" max="12" width="100.703125" customWidth="true" bestFit="true"/>
     <col min="13" max="13" width="100.703125" customWidth="true" bestFit="true"/>
     <col min="14" max="14" width="100.703125" customWidth="true" bestFit="true"/>
@@ -1791,27 +1791,27 @@
     <col min="17" max="17" width="20.703125" customWidth="true" bestFit="true"/>
     <col min="18" max="18" width="20.703125" customWidth="true" bestFit="true"/>
     <col min="19" max="19" width="20.703125" customWidth="true" bestFit="true"/>
-    <col min="20" max="20" width="8.84375" customWidth="true" bestFit="true"/>
-    <col min="21" max="21" width="15.7109375" customWidth="true" bestFit="true"/>
-    <col min="22" max="22" width="16.0859375" customWidth="true" bestFit="true"/>
-    <col min="23" max="23" width="17.078125" customWidth="true" bestFit="true"/>
-    <col min="24" max="24" width="16.30859375" customWidth="true" bestFit="true"/>
-    <col min="25" max="25" width="120.8828125" customWidth="true" bestFit="true"/>
-    <col min="26" max="26" width="61.0234375" customWidth="true" bestFit="true"/>
-    <col min="27" max="27" width="5.69140625" customWidth="true" bestFit="true"/>
-    <col min="28" max="28" width="19.73046875" customWidth="true" bestFit="true"/>
-    <col min="29" max="29" width="40.0390625" customWidth="true" bestFit="true"/>
-    <col min="30" max="30" width="14.984375" customWidth="true" bestFit="true"/>
-    <col min="31" max="31" width="12.30078125" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="32" max="32" width="45.46484375" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="33" max="33" width="9.5" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="34" max="34" width="9.875" customWidth="true" bestFit="true"/>
+    <col min="20" max="20" width="9.04296875" customWidth="true" bestFit="true"/>
+    <col min="21" max="21" width="15.77734375" customWidth="true" bestFit="true"/>
+    <col min="22" max="22" width="16.13671875" customWidth="true" bestFit="true"/>
+    <col min="23" max="23" width="17.40234375" customWidth="true" bestFit="true"/>
+    <col min="24" max="24" width="16.9609375" customWidth="true" bestFit="true"/>
+    <col min="25" max="25" width="120.9609375" customWidth="true" bestFit="true"/>
+    <col min="26" max="26" width="62.30859375" customWidth="true" bestFit="true"/>
+    <col min="27" max="27" width="5.8828125" customWidth="true" bestFit="true"/>
+    <col min="28" max="28" width="20.84375" customWidth="true" bestFit="true"/>
+    <col min="29" max="29" width="40.0859375" customWidth="true" bestFit="true"/>
+    <col min="30" max="30" width="15.703125" customWidth="true" bestFit="true"/>
+    <col min="31" max="31" width="13.125" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="32" max="32" width="44.703125" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="33" max="33" width="9.53125" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="34" max="34" width="9.890625" customWidth="true" bestFit="true"/>
     <col min="35" max="35" width="100.703125" customWidth="true"/>
-    <col min="37" max="37" width="26.71484375" customWidth="true" bestFit="true"/>
+    <col min="37" max="37" width="26.69140625" customWidth="true" bestFit="true"/>
     <col min="38" max="38" width="255.0" customWidth="true" bestFit="true"/>
-    <col min="39" max="39" width="32.84375" customWidth="true" bestFit="true"/>
-    <col min="40" max="40" width="98.3671875" customWidth="true" bestFit="true"/>
-    <col min="41" max="41" width="20.26171875" customWidth="true" bestFit="true"/>
+    <col min="39" max="39" width="33.05078125" customWidth="true" bestFit="true"/>
+    <col min="40" max="40" width="100.58203125" customWidth="true" bestFit="true"/>
+    <col min="41" max="41" width="20.3125" customWidth="true" bestFit="true"/>
   </cols>
   <sheetData>
     <row r="1">

--- a/docs/StructureDefinition-cibmtr-medication-administration.xlsx
+++ b/docs/StructureDefinition-cibmtr-medication-administration.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-05-04T21:27:58-05:00</t>
+    <t>2023-05-05T10:07:01-05:00</t>
   </si>
   <si>
     <t>Publisher</t>
